--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF0E32C-B192-497E-A636-16A4BDB55518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61ABD55-FD5D-413A-950A-7D7B45CCF3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="579">
   <si>
     <t>nActi</t>
   </si>
@@ -1795,12 +1795,42 @@
   <si>
     <t>Bài 13: Cảm biến bàn đạp ga kiểu phần tử hall</t>
   </si>
+  <si>
+    <t>Tên Đồ Thị</t>
+  </si>
+  <si>
+    <t>Mã Đồ Thị</t>
+  </si>
+  <si>
+    <t>@01D1#</t>
+  </si>
+  <si>
+    <t>ngu nhu con bòa</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>sfsdf</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Mã chân cb</t>
+  </si>
+  <si>
+    <t>@01D2#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,6 +1923,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1962,7 +2004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2027,9 +2069,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2042,6 +2081,13 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2360,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2382,7 +2428,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2422,11 +2468,23 @@
       <c r="M1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="40" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2494,7 @@
       <c r="C2" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>555</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -2469,8 +2527,20 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +2550,7 @@
       <c r="C3" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>555</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -2496,7 +2566,7 @@
         <v>406</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>408</v>
+        <v>573</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>12</v>
@@ -2513,8 +2583,20 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -2524,7 +2606,7 @@
       <c r="C4" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>555</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -2549,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>408</v>
+        <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -2557,8 +2639,20 @@
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -2568,11 +2662,11 @@
       <c r="C5" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>555</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>404</v>
@@ -2581,19 +2675,19 @@
         <v>14</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>14</v>
+        <v>575</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>14</v>
+        <v>574</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
+        <v>573</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>12</v>
@@ -2601,8 +2695,20 @@
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2718,7 @@
       <c r="C6" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -2645,8 +2751,20 @@
       <c r="N6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -2660,7 +2778,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
@@ -2672,7 +2790,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -2684,7 +2802,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -2696,7 +2814,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -2708,7 +2826,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -2720,7 +2838,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -2732,7 +2850,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -2744,7 +2862,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
@@ -2756,7 +2874,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
@@ -2847,13 +2965,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2867,7 +2985,7 @@
       <c r="C2" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>565</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -2911,7 +3029,7 @@
       <c r="C3" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>565</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -2955,7 +3073,7 @@
       <c r="C4" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>565</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -2999,7 +3117,7 @@
       <c r="C5" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3358,13 +3476,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3378,7 +3496,7 @@
       <c r="C2" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>566</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -3422,7 +3540,7 @@
       <c r="C3" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>566</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -3466,7 +3584,7 @@
       <c r="C4" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>566</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -3510,7 +3628,7 @@
       <c r="C5" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3610,13 +3728,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3630,7 +3748,7 @@
       <c r="C2" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>567</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -3674,7 +3792,7 @@
       <c r="C3" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>567</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -3718,7 +3836,7 @@
       <c r="C4" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>567</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -3762,7 +3880,7 @@
       <c r="C5" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3865,13 +3983,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3885,7 +4003,7 @@
       <c r="C2" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>568</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -3929,7 +4047,7 @@
       <c r="C3" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>568</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -3973,7 +4091,7 @@
       <c r="C4" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>568</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -4017,7 +4135,7 @@
       <c r="C5" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -4993,11 +5111,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5033,10 +5151,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -5072,10 +5190,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="41"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -5111,10 +5229,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="41"/>
+      <c r="P4" s="43"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -8887,10 +9005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8909,7 +9027,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8952,9 +9070,17 @@
       <c r="N1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="O1" s="36"/>
-    </row>
-    <row r="2" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -8964,7 +9090,7 @@
       <c r="C2" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>556</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -8997,8 +9123,17 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -9008,7 +9143,7 @@
       <c r="C3" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>556</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -9041,8 +9176,17 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9052,7 +9196,7 @@
       <c r="C4" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>556</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -9085,8 +9229,17 @@
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -9096,7 +9249,7 @@
       <c r="C5" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>556</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -9129,8 +9282,17 @@
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -9140,7 +9302,7 @@
       <c r="C6" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>556</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -9173,8 +9335,17 @@
       <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
@@ -9184,7 +9355,7 @@
       <c r="C7" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -9217,8 +9388,17 @@
       <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -9233,7 +9413,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -9246,7 +9426,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -9259,7 +9439,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -9272,7 +9452,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -9285,7 +9465,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -9298,7 +9478,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -9403,7 +9583,7 @@
       <c r="C2" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>557</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -9447,7 +9627,7 @@
       <c r="C3" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>557</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -9491,7 +9671,7 @@
       <c r="C4" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>557</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -9535,7 +9715,7 @@
       <c r="C5" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -9674,7 +9854,7 @@
       <c r="C2" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>558</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -9718,7 +9898,7 @@
       <c r="C3" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>558</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -9762,7 +9942,7 @@
       <c r="C4" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>558</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -9806,7 +9986,7 @@
       <c r="C5" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>558</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -9850,7 +10030,7 @@
       <c r="C6" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -10002,13 +10182,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10022,7 +10202,7 @@
       <c r="C2" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>559</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -10066,7 +10246,7 @@
       <c r="C3" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>559</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -10110,7 +10290,7 @@
       <c r="C4" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -10217,13 +10397,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10237,7 +10417,7 @@
       <c r="C2" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>560</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -10281,7 +10461,7 @@
       <c r="C3" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>560</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -10325,7 +10505,7 @@
       <c r="C4" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -10478,13 +10658,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10498,7 +10678,7 @@
       <c r="C2" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>561</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -10542,7 +10722,7 @@
       <c r="C3" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>562</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -10586,7 +10766,7 @@
       <c r="C4" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>561</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -10630,7 +10810,7 @@
       <c r="C5" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -10920,13 +11100,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10940,7 +11120,7 @@
       <c r="C2" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>563</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -10985,7 +11165,7 @@
       <c r="C3" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>563</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -11030,7 +11210,7 @@
       <c r="C4" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>563</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -11075,7 +11255,7 @@
       <c r="C5" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>563</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -11120,7 +11300,7 @@
       <c r="C6" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -11445,13 +11625,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -11465,7 +11645,7 @@
       <c r="C2" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>564</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -11509,7 +11689,7 @@
       <c r="C3" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>564</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -11553,7 +11733,7 @@
       <c r="C4" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>564</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -11597,7 +11777,7 @@
       <c r="C5" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\26-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61ABD55-FD5D-413A-950A-7D7B45CCF3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="592">
   <si>
     <t>nActi</t>
   </si>
@@ -1273,9 +1272,6 @@
     <t>box</t>
   </si>
   <si>
-    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực)</t>
-  </si>
-  <si>
     <t>Câu 2: Đo điện trở cảm biến ở chân THA theo nhiệt độ môi trường
 Yêu cầu: Ngắt kết nối cảm biến khỏi bảng mạch, tiến hành đo điện trở, 
 sau đó kết nối lại bảng mạch và chọn Tiếp theo.</t>
@@ -1284,42 +1280,9 @@
     <t>Câu 3: Đo điện áp tín hiệu THA theo nhiệt độ môi trường.</t>
   </si>
   <si>
-    <t>1-2-4-3-5</t>
-  </si>
-  <si>
-    <t>2-3-4-5-1</t>
-  </si>
-  <si>
-    <t>1-4-3-5-2</t>
-  </si>
-  <si>
     <t>Câu 4: Kiểm tra tín hiệu VG khi kết nối cảm biến.</t>
   </si>
   <si>
-    <t>5,2 kΩ</t>
-  </si>
-  <si>
-    <t>470 Ω</t>
-  </si>
-  <si>
-    <t>3,5 kΩ</t>
-  </si>
-  <si>
-    <t>Lấy tín hiệu R_THA</t>
-  </si>
-  <si>
-    <t>0,57 V</t>
-  </si>
-  <si>
-    <t>3,12 V</t>
-  </si>
-  <si>
-    <t>1,14 V</t>
-  </si>
-  <si>
-    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực).</t>
-  </si>
-  <si>
     <t>Câu 3: Đo điện áp tín hiệu cảm biến ở chân THA theo nhiệt độ môi trường.</t>
   </si>
   <si>
@@ -1329,111 +1292,15 @@
     <t>Câu 5: Điện áp tín hiệu cảm biến áp suất môi trường PA.</t>
   </si>
   <si>
-    <t>1-3-2-5-4-6</t>
-  </si>
-  <si>
-    <t>2-5-6-4-3-1</t>
-  </si>
-  <si>
-    <t>5-6-2-3-1-4</t>
-  </si>
-  <si>
-    <t>5-3-6-2-1-4</t>
-  </si>
-  <si>
-    <t>3,49 kΩ</t>
-  </si>
-  <si>
-    <t>3,17 Ω</t>
-  </si>
-  <si>
-    <t>2,76 kΩ</t>
-  </si>
-  <si>
-    <t>1,04 V</t>
-  </si>
-  <si>
-    <t>Điện áp từ 0 - 2,4V</t>
-  </si>
-  <si>
-    <t>Xung vuông 0 - 5V</t>
-  </si>
-  <si>
-    <t>Xung điện áp 1 - 4V</t>
-  </si>
-  <si>
-    <t>Điện áp từ 0,5 - 4,5V</t>
-  </si>
-  <si>
-    <t>Lấy tín hiệu</t>
-  </si>
-  <si>
-    <t>0,83 V</t>
-  </si>
-  <si>
-    <t>5,1 V</t>
-  </si>
-  <si>
-    <t>2,02 V</t>
-  </si>
-  <si>
     <t>Câu 2: Điện áp tín hiệu chân PIM theo áp suất môi trường</t>
   </si>
   <si>
     <t>Câu 3: Khi áp suất trong đường ống nạp càng lớn thì điện áp cực PIM</t>
   </si>
   <si>
-    <t>1-2-3</t>
-  </si>
-  <si>
-    <t>3-2-1</t>
-  </si>
-  <si>
-    <t>2-3-1</t>
-  </si>
-  <si>
-    <t>1-3-2</t>
-  </si>
-  <si>
-    <t>Càng tăng</t>
-  </si>
-  <si>
-    <t>Càng giảm</t>
-  </si>
-  <si>
-    <t>Tăng đến một mức nào đó rồi giảm</t>
-  </si>
-  <si>
-    <t>Giảm đến mức nào đó rồi tăng</t>
-  </si>
-  <si>
     <t>Câu 1: Xác định điện trở cảm biến G và Ne. Chọn đáp án đúng nhất.</t>
   </si>
   <si>
-    <t>G: 170 Ω; Ne: 166 Ω</t>
-  </si>
-  <si>
-    <t>G: 170 Ω; Ne: 190 Ω</t>
-  </si>
-  <si>
-    <t>G: 150 Ω; Ne: 166 Ω</t>
-  </si>
-  <si>
-    <t>G: 186 Ω; Ne: 202 Ω</t>
-  </si>
-  <si>
-    <t>∆ = 0,5 - 0,7 mm</t>
-  </si>
-  <si>
-    <t>∆ = 5 - 7 mm</t>
-  </si>
-  <si>
-    <t>∆ = 2 - 4 mm</t>
-  </si>
-  <si>
-    <t>∆ = 0,2 - 0,4 mm</t>
-  </si>
-  <si>
     <t>Câu 2: Khe hở từ của cảm biến G và Ne bố trí trong delco là bao nhiêu ?</t>
   </si>
   <si>
@@ -1443,55 +1310,13 @@
     <t>Câu 4: Sức điện động mà cảm biến sinh ra đạt lớn nhất khi.</t>
   </si>
   <si>
-    <t>Điện áp từ 0 - 1V</t>
-  </si>
-  <si>
-    <t>Xung điện áp từ 0 - 5V</t>
-  </si>
-  <si>
-    <t>Xung điện áp từ 0 - 4V</t>
-  </si>
-  <si>
-    <t>Lượng từ thông qua cuộn dây là nhỏ nhất.</t>
-  </si>
-  <si>
-    <t>Sự thay đổi từ thông qua cuộn dây là nhỏ nhất.</t>
-  </si>
-  <si>
-    <t>Lượng từ thông qua cuộn dây là lớn nhất.</t>
-  </si>
-  <si>
-    <t>Sự thay đổi từ thông qua cuộn dây là lớn nhất.</t>
-  </si>
-  <si>
     <t>Câu 1: Xác định tín hiệu đầu ra cảm biến G và Ne?</t>
   </si>
   <si>
     <t>Câu 2: Khi cánh rotor chắn từ thông, điện áp IC Hall bằng 0 thì điện áp cực Ne là:</t>
   </si>
   <si>
-    <t>5 V</t>
-  </si>
-  <si>
-    <t>2,5 V</t>
-  </si>
-  <si>
-    <t>1 V</t>
-  </si>
-  <si>
     <t>Câu 2: Rãnh to nhất của cảm biến G dùng để xác định vị trí</t>
-  </si>
-  <si>
-    <t>Piston số 4 ở điểm chết trên.</t>
-  </si>
-  <si>
-    <t>Piston số 4 ở điểm chết dưới.</t>
-  </si>
-  <si>
-    <t>Piston số 1 ở điểm chết trên.</t>
-  </si>
-  <si>
-    <t>Piston số 1 ở điểm chết dưới.</t>
   </si>
   <si>
     <t>Câu 1: Đo điện trở cảm biến ở chân THW theo nhiệt độ môi trường
@@ -1505,87 +1330,18 @@
     <t>Câu 3: ECU điều khiển quạt ở hệ thống làm mát quay ở ngưỡng nhiệt độ là:</t>
   </si>
   <si>
-    <t>450 Ω</t>
-  </si>
-  <si>
-    <t>60ºC</t>
-  </si>
-  <si>
-    <t>90ºC</t>
-  </si>
-  <si>
-    <t>80ºC</t>
-  </si>
-  <si>
-    <t>70ºC</t>
-  </si>
-  <si>
-    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực)?</t>
-  </si>
-  <si>
-    <t>3-1-2</t>
-  </si>
-  <si>
-    <t>2-1-3</t>
-  </si>
-  <si>
     <t>Câu 2: Khi ở tốc độ cầm chừng tín hiệu cảm biến gửi về là ? (Chọn đáp án đúng nhất)</t>
   </si>
   <si>
-    <t>IDL = 0 V</t>
-  </si>
-  <si>
-    <t>PSW = 0 V</t>
-  </si>
-  <si>
-    <t>IDL = 5 V</t>
-  </si>
-  <si>
-    <t>Cả A và B đều đúng.</t>
-  </si>
-  <si>
     <t>Câu 3: Khi ở chế độ tải trung bình tín hiệu cảm biến gửi về là ? (Chọn đáp án đúng nhất)</t>
   </si>
   <si>
-    <t>PSW = 5 V</t>
-  </si>
-  <si>
-    <t>Cả A và C đều đúng.</t>
-  </si>
-  <si>
     <t>Câu 4: Khi ở chế độ đầy tải tín hiệu cảm biến gửi về là ? (Chọn đáp án đúng nhất)</t>
   </si>
   <si>
-    <t>2-4-1-3</t>
-  </si>
-  <si>
-    <t>2-1-3-4</t>
-  </si>
-  <si>
-    <t>1-3-4-2</t>
-  </si>
-  <si>
-    <t>4-2-1-3</t>
-  </si>
-  <si>
     <t>Câu 2: Đo điện áp tín hiệu VTA khi cánh bướm ga mở hết.</t>
   </si>
   <si>
-    <t>10 V</t>
-  </si>
-  <si>
-    <t>7 V</t>
-  </si>
-  <si>
-    <t>0,45V - 0,65V</t>
-  </si>
-  <si>
-    <t>4,5V - 5,3V</t>
-  </si>
-  <si>
-    <t>2,5V - 2,7V</t>
-  </si>
-  <si>
     <t>Câu 2: Tín hiệu điện áp cực VTA khi ở chế độ cầm chừng là ?</t>
   </si>
   <si>
@@ -1593,18 +1349,6 @@
   </si>
   <si>
     <t>Câu 3: Khi bướm ga mở tín hiệu điện áp IDL gửi về là bao nhiêu ? (Chọn đáp án gần đúng)</t>
-  </si>
-  <si>
-    <t>6-5-3-2-4-1</t>
-  </si>
-  <si>
-    <t>4-5-2-3-1-6</t>
-  </si>
-  <si>
-    <t>5-2-3-1-4-6</t>
-  </si>
-  <si>
-    <t>2-3-5-6-4-1</t>
   </si>
   <si>
     <t>Câu 2: Đo điện áp tín hiệu VTA1 khi cánh bướm ga mở hết.</t>
@@ -1796,41 +1540,335 @@
     <t>Bài 13: Cảm biến bàn đạp ga kiểu phần tử hall</t>
   </si>
   <si>
-    <t>Tên Đồ Thị</t>
-  </si>
-  <si>
-    <t>Mã Đồ Thị</t>
-  </si>
-  <si>
-    <t>@01D1#</t>
-  </si>
-  <si>
-    <t>ngu nhu con bòa</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>sfsdf</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>Mã chân cb</t>
-  </si>
-  <si>
-    <t>@01D2#</t>
+    <t>A. 5,2 kΩ</t>
+  </si>
+  <si>
+    <t>B. 470 Ω</t>
+  </si>
+  <si>
+    <t>C. Lấy tín hiệu R_THA</t>
+  </si>
+  <si>
+    <t>D. 3,5 kΩ</t>
+  </si>
+  <si>
+    <t>A. 0,57 V</t>
+  </si>
+  <si>
+    <t>B. 3,12 V</t>
+  </si>
+  <si>
+    <t>C. 1,14 V</t>
+  </si>
+  <si>
+    <t>D. Lấy tín hiệu R_THA</t>
+  </si>
+  <si>
+    <t>A. 3,49 kΩ</t>
+  </si>
+  <si>
+    <t>B. 3,17 Ω</t>
+  </si>
+  <si>
+    <t>C. 1,04 V</t>
+  </si>
+  <si>
+    <t>A. Điện áp từ 0 - 2,4V</t>
+  </si>
+  <si>
+    <t>B. Xung vuông 0 - 5V</t>
+  </si>
+  <si>
+    <t>C. Xung điện áp 1 - 4V</t>
+  </si>
+  <si>
+    <t>A. 5,1 V</t>
+  </si>
+  <si>
+    <t>B. Lấy tín hiệu</t>
+  </si>
+  <si>
+    <t>C. 0,83 V</t>
+  </si>
+  <si>
+    <t>D. 2,02 V</t>
+  </si>
+  <si>
+    <t>D. Điện áp từ 0,5 - 4,5V</t>
+  </si>
+  <si>
+    <t>D. 2,76 kΩ</t>
+  </si>
+  <si>
+    <t>A. Càng tăng</t>
+  </si>
+  <si>
+    <t>B. Càng giảm</t>
+  </si>
+  <si>
+    <t>C. Tăng đến một mức nào đó rồi giảm</t>
+  </si>
+  <si>
+    <t>D. Giảm đến mức nào đó rồi tăng</t>
+  </si>
+  <si>
+    <t>A. G: 170 Ω; Ne: 166 Ω</t>
+  </si>
+  <si>
+    <t>B. G: 170 Ω; Ne: 190 Ω</t>
+  </si>
+  <si>
+    <t>C. G: 150 Ω; Ne: 166 Ω</t>
+  </si>
+  <si>
+    <t>A. ∆ = 0,2 - 0,4 mm</t>
+  </si>
+  <si>
+    <t>B. ∆ = 2 - 4 mm</t>
+  </si>
+  <si>
+    <t>C. ∆ = 0,5 - 0,7 mm</t>
+  </si>
+  <si>
+    <t>A. Xung vuông 0 - 5V</t>
+  </si>
+  <si>
+    <t>B. Điện áp từ 0 - 1V</t>
+  </si>
+  <si>
+    <t>C. Xung điện áp từ 0 - 5V</t>
+  </si>
+  <si>
+    <t>A. Lượng từ thông qua cuộn dây là nhỏ nhất.</t>
+  </si>
+  <si>
+    <t>B. Sự thay đổi từ thông qua cuộn dây là nhỏ nhất.</t>
+  </si>
+  <si>
+    <t>C. Lượng từ thông qua cuộn dây là lớn nhất.</t>
+  </si>
+  <si>
+    <t>A. G: 186 Ω; Ne: 202 Ω</t>
+  </si>
+  <si>
+    <t>B. ∆ = 5 - 7 mm</t>
+  </si>
+  <si>
+    <t>C. Xung điện áp từ 0 - 4V</t>
+  </si>
+  <si>
+    <t>D. Sự thay đổi từ thông qua cuộn dây là lớn nhất.</t>
+  </si>
+  <si>
+    <t>D. Xung điện áp từ 0 - 4V</t>
+  </si>
+  <si>
+    <t>A. 5 V</t>
+  </si>
+  <si>
+    <t>B. 0 V</t>
+  </si>
+  <si>
+    <t>C. 2,5 V</t>
+  </si>
+  <si>
+    <t>D. 1 V</t>
+  </si>
+  <si>
+    <t>A. Piston số 4 ở điểm chết trên.</t>
+  </si>
+  <si>
+    <t>B. Piston số 4 ở điểm chết dưới.</t>
+  </si>
+  <si>
+    <t>C. Piston số 1 ở điểm chết trên.</t>
+  </si>
+  <si>
+    <t>D. Piston số 1 ở điểm chết dưới.</t>
+  </si>
+  <si>
+    <t>B. Lấy tín hiệu R_THA</t>
+  </si>
+  <si>
+    <t>C. 450 Ω</t>
+  </si>
+  <si>
+    <t>A. 60ºC</t>
+  </si>
+  <si>
+    <t>B. 70ºC</t>
+  </si>
+  <si>
+    <t>C. 80ºC</t>
+  </si>
+  <si>
+    <t>D. 90ºC</t>
+  </si>
+  <si>
+    <t>A. IDL = 0 V</t>
+  </si>
+  <si>
+    <t>B. PSW = 0 V</t>
+  </si>
+  <si>
+    <t>B. PSW = 5 V</t>
+  </si>
+  <si>
+    <t>C. IDL = 5 V</t>
+  </si>
+  <si>
+    <t>C. PSW = 0 V</t>
+  </si>
+  <si>
+    <t>D. Cả A và B đều đúng.</t>
+  </si>
+  <si>
+    <t>D. Cả A và C đều đúng.</t>
+  </si>
+  <si>
+    <t>B. 10 V</t>
+  </si>
+  <si>
+    <t>C. 12 V</t>
+  </si>
+  <si>
+    <t>D. 7 V</t>
+  </si>
+  <si>
+    <t>A. 0,45V - 0,65V</t>
+  </si>
+  <si>
+    <t>B. 4,5V - 5,3V</t>
+  </si>
+  <si>
+    <t>C. 0V</t>
+  </si>
+  <si>
+    <t>D. 2,5V - 2,7V</t>
+  </si>
+  <si>
+    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải)</t>
+  </si>
+  <si>
+    <t>A. 1 là E2, 2 là THA, 3 là VG, 4 là EVG, 5 là +B</t>
+  </si>
+  <si>
+    <t>B. 1 là VG, 2 là EVG, 3 là +B, 4 là E2, 5 là THA</t>
+  </si>
+  <si>
+    <t>C. 1 là E2, 2 là +B, 3 là VG, 4 là EVG, 5 là THA</t>
+  </si>
+  <si>
+    <t>D. 1 là THA, 2 là E2, 3 là VG, 4 là EVG, 5 là +B</t>
+  </si>
+  <si>
+    <t>A. 1 là +B, 2 là KS, 3 là VC, 4 là THA, 5 là PA, 6 là GND</t>
+  </si>
+  <si>
+    <t>B. 1 là KS, 2 là +B, 3 là THA, 4 là GND, 5 là PA, 6 là VC</t>
+  </si>
+  <si>
+    <t>C. 1 là KS, 2 là +B, 3 là VC, 4 là GND, 5 là PA, 6 là THA</t>
+  </si>
+  <si>
+    <t>D. 1 là +B, 2 là KS, 3 là PA, 4 là THA, 5 là GND, 6 là VC</t>
+  </si>
+  <si>
+    <t>A. 1 là E2, 2 là PIM, 3 là VC</t>
+  </si>
+  <si>
+    <t>B. 1 là VC, 2 là E2, 3 là PIM</t>
+  </si>
+  <si>
+    <t>C. 1 là PIM, 2 là VC, 3 là E2</t>
+  </si>
+  <si>
+    <t>D. 1 là PIM, 2 là E2, 3 là VC</t>
+  </si>
+  <si>
+    <t>A. 1 là IDL, 2 là E, 3 là PSW</t>
+  </si>
+  <si>
+    <t>B. 1 là PSW, 2 là IDL, 3 là E</t>
+  </si>
+  <si>
+    <t>C. 1 là IDL, 2 là PSW, 3 là E</t>
+  </si>
+  <si>
+    <t>D. 1 là E, 2 là IDL, 3 là PSW</t>
+  </si>
+  <si>
+    <t>A. 1 là VTA, 2 là VC, 3 là IDL, 4 là E2</t>
+  </si>
+  <si>
+    <t>B. 1 là VTA, 2 là VC, 3 là E2, 4 là IDL</t>
+  </si>
+  <si>
+    <t>C. 1 là VC, 2 là E2, 3 là IDL, 4 là VTA</t>
+  </si>
+  <si>
+    <t>D. 1 là VC, 2 là VTA, 3 là IDL, 4 là E2</t>
+  </si>
+  <si>
+    <t>A. 1 là VTA, 2 là EC, 3 là E2</t>
+  </si>
+  <si>
+    <t>B. 1 là VTA, 2 là E2, 3 là VC</t>
+  </si>
+  <si>
+    <t>C. 1 là VC, 2 là E2, 3 là VTA</t>
+  </si>
+  <si>
+    <t>D. 1 là E2, 2 là VC, 3 là VTA</t>
+  </si>
+  <si>
+    <t>A. 1 là VTA, 2 là VTA2, 3 là VC, 4 là E2, 5 là M-, 6 là M+</t>
+  </si>
+  <si>
+    <t>B. 1 là VTA, 2 là VC, 3 là VTA2, 4 là E2, 5 là M-, 6 là M+</t>
+  </si>
+  <si>
+    <t>C. 1 là E2, 2 là VTA2, 3 là VTA, 4 là VC, 5 là M-, 6 là M+</t>
+  </si>
+  <si>
+    <t>D. 1 là VTA, 2 là VTA2, 3 là M-, 4 là M+, 5 là E2, 6 là VC</t>
+  </si>
+  <si>
+    <t>A. 1 là VCPA1, 2 là VPA1, 3 là VCPA2, 4 là EPA2, 5 là EPA1, 6 là VPA2</t>
+  </si>
+  <si>
+    <t>B. 1 là VCPA1, 2 là VCPA2, 3 là VPA1, 4 là VPA2, 5 là EPA1, 6 là EPA2</t>
+  </si>
+  <si>
+    <t>C. 1 là VCPA2, 2 là VCPA1, 3 là EPA1, 4 là EPA2, 5 là VPA1, 6 là VPA2</t>
+  </si>
+  <si>
+    <t>D. 1 là EPA1, 2 là VPA2, 3 là EPA2, 4 là VCPA1, 5 là VPA1, 6 là VCPA2</t>
+  </si>
+  <si>
+    <t>A. 1 là VPA1, 2 là EPA1, 3 là VCPA1, 4 là VPA2, 5 là EPA2, 6 là VCPA2</t>
+  </si>
+  <si>
+    <t>B. 1 là EPA2, 2 là VCPA2, 3 là VPA1, 4 là EPA1, 5 là VCPA1, 6 là VPA2</t>
+  </si>
+  <si>
+    <t>C. 1 là VPA2, 2 là VPA1, 3 là EPA1, 4 là EPA2, 5 là VCPA1, 6 là VCPA2</t>
+  </si>
+  <si>
+    <t>1 là VCPA1, 2 là VCPA2, 3 là EPA1, 4 là EPA2, 5 là VPA1, 6 là VPA2</t>
+  </si>
+  <si>
+    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải).</t>
+  </si>
+  <si>
+    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải)?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1923,18 +1961,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2004,7 +2030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2069,6 +2095,9 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2081,13 +2110,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2405,21 +2427,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.109375" style="2"/>
     <col min="3" max="3" width="48.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="52.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" style="2"/>
+    <col min="7" max="7" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="2"/>
     <col min="9" max="9" width="48" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" style="2"/>
     <col min="11" max="11" width="12.109375" style="2" customWidth="1"/>
@@ -2428,7 +2451,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2466,25 +2489,13 @@
         <v>396</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="O1" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>577</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -2492,34 +2503,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D2" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>402</v>
-      </c>
       <c r="I2" s="17" t="s">
-        <v>403</v>
+        <v>556</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
+      <c r="L2" s="19" t="s">
+        <v>557</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -2527,20 +2538,8 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -2548,25 +2547,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>555</v>
+        <v>430</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>470</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>573</v>
+        <v>486</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>12</v>
@@ -2575,7 +2574,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -2583,20 +2582,8 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -2604,25 +2591,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>555</v>
+        <v>431</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>470</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>411</v>
+        <v>490</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>16</v>
@@ -2630,8 +2617,8 @@
       <c r="K4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
+      <c r="L4" s="19" t="s">
+        <v>491</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -2639,20 +2626,8 @@
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -2660,34 +2635,34 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>555</v>
+        <v>432</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>470</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>575</v>
+        <v>14</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>574</v>
+        <v>14</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>573</v>
+        <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>12</v>
@@ -2695,20 +2670,8 @@
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2716,9 +2679,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D6" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -2751,20 +2714,8 @@
       <c r="N6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -2778,7 +2729,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
@@ -2790,7 +2741,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -2802,7 +2753,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -2814,7 +2765,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -2826,7 +2777,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -2838,7 +2789,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -2850,7 +2801,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -2862,7 +2813,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
@@ -2874,7 +2825,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
@@ -2901,11 +2852,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\1.PNG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\2.PNG" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\3.PNG" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -2913,12 +2864,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C5"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2965,13 +2916,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2983,34 +2934,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>565</v>
+        <v>458</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>481</v>
+        <v>574</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>435</v>
+        <v>575</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>434</v>
+        <v>576</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>436</v>
+        <v>577</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -3027,25 +2978,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>565</v>
+        <v>459</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>137</v>
+        <v>551</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -3054,7 +3005,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
@@ -3071,16 +3022,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>565</v>
+        <v>460</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -3115,9 +3066,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D5" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3416,10 +3367,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\1.PNG" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\2.PNG" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\3.PNG" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\3.PNG" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\3.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -3427,11 +3378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3476,13 +3427,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3494,34 +3445,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>566</v>
+        <v>461</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>481</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>506</v>
+        <v>580</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -3538,16 +3489,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>566</v>
+        <v>462</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>481</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>508</v>
+        <v>423</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>14</v>
@@ -3582,16 +3533,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>566</v>
+        <v>463</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>481</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>509</v>
+        <v>424</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -3626,9 +3577,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D5" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3669,21 +3620,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\1.PNG" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\2.PNG" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\3.PNG" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\3.PNG" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\3.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3728,13 +3679,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3746,34 +3697,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>567</v>
+        <v>464</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>482</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -3790,16 +3741,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>567</v>
+        <v>465</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>482</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>510</v>
+        <v>425</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>14</v>
@@ -3834,16 +3785,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>567</v>
+        <v>466</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>482</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>511</v>
+        <v>426</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -3878,9 +3829,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D5" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3921,21 +3872,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\1.PNG" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\2.PNG" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\3.PNG" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\3.PNG" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\3.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3944,9 +3895,11 @@
     <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.21875" customWidth="1"/>
     <col min="6" max="6" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -3983,13 +3936,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4001,34 +3954,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>568</v>
+        <v>467</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>504</v>
+        <v>586</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -4045,16 +3998,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>568</v>
+        <v>468</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>510</v>
+        <v>425</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>14</v>
@@ -4089,16 +4042,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>568</v>
+        <v>469</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>511</v>
+        <v>426</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -4133,9 +4086,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D5" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -4171,22 +4124,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>513</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\1.PNG" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\2.PNG" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\3.PNG" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\3.PNG" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\3.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5056,7 +5009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5111,11 +5064,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5151,10 +5104,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -5190,10 +5143,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="43"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -5229,10 +5182,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="43"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -6307,13 +6260,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -6321,7 +6274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7459,30 +7412,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
-    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
-    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
-    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
+    <hyperlink ref="C30" r:id="rId20"/>
+    <hyperlink ref="C31" r:id="rId21"/>
+    <hyperlink ref="C32" r:id="rId22"/>
+    <hyperlink ref="C33" r:id="rId23"/>
+    <hyperlink ref="C2" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -7490,7 +7443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8190,30 +8143,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8979,24 +8932,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-1100-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-1100-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-1100-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-1100-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-1100-00000A000000}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-1100-00000B000000}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-1100-00000C000000}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-1100-00000E000000}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-1100-00000F000000}"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1100-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-1100-000011000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
+    <hyperlink ref="B23" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -9004,11 +8957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9019,15 +8972,15 @@
     <col min="5" max="5" width="12.109375" style="2"/>
     <col min="6" max="6" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" style="2" customWidth="1"/>
     <col min="10" max="11" width="12.109375" style="2"/>
     <col min="12" max="12" width="19.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.109375" style="2" customWidth="1"/>
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9065,22 +9018,14 @@
         <v>396</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>512</v>
+        <v>427</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -9088,25 +9033,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>556</v>
+        <v>433</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>471</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>412</v>
+        <v>590</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>416</v>
+        <v>558</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>417</v>
+        <v>559</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>418</v>
+        <v>560</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>12</v>
@@ -9114,8 +9059,8 @@
       <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>419</v>
+      <c r="L2" s="19" t="s">
+        <v>561</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -9123,17 +9068,8 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -9141,25 +9077,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>556</v>
+        <v>434</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>471</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>12</v>
@@ -9167,8 +9103,8 @@
       <c r="K3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>422</v>
+      <c r="L3" s="19" t="s">
+        <v>503</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -9176,17 +9112,8 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9194,25 +9121,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>556</v>
+        <v>435</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>471</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>16</v>
@@ -9220,8 +9147,8 @@
       <c r="K4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>408</v>
+      <c r="L4" s="19" t="s">
+        <v>491</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -9229,17 +9156,8 @@
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -9247,25 +9165,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>556</v>
+        <v>434</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>471</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>13</v>
@@ -9273,8 +9191,8 @@
       <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>427</v>
+      <c r="L5" s="19" t="s">
+        <v>502</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>14</v>
@@ -9282,17 +9200,8 @@
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="52.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -9300,25 +9209,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>556</v>
+        <v>436</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>471</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>13</v>
@@ -9326,8 +9235,8 @@
       <c r="K6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>431</v>
+      <c r="L6" s="19" t="s">
+        <v>501</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>12</v>
@@ -9335,17 +9244,8 @@
       <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
@@ -9353,9 +9253,9 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D7" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -9388,17 +9288,8 @@
       <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -9413,7 +9304,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -9426,7 +9317,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -9439,7 +9330,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -9452,7 +9343,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -9465,7 +9356,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -9478,7 +9369,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -9494,12 +9385,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\1.PNG" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\3.PNG" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG"/>
+    <hyperlink ref="C7" r:id="rId6" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -9507,11 +9398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9567,7 +9458,7 @@
         <v>396</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>512</v>
+        <v>427</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>397</v>
@@ -9581,34 +9472,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>557</v>
+        <v>437</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>472</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>398</v>
+        <v>553</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>435</v>
+        <v>563</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>436</v>
+        <v>564</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>437</v>
+        <v>565</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -9625,16 +9516,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>557</v>
+        <v>438</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>472</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>14</v>
@@ -9669,25 +9560,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>557</v>
+        <v>439</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>472</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>14</v>
@@ -9696,7 +9587,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -9713,9 +9604,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D5" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -9767,21 +9658,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\1.PNG" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\2.PNG" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\3.PNG" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\3.PNG" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\3.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView topLeftCell="C1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9838,7 +9729,7 @@
         <v>396</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>512</v>
+        <v>427</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>397</v>
@@ -9852,25 +9743,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>558</v>
+        <v>440</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>473</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -9879,7 +9770,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -9896,25 +9787,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>558</v>
+        <v>441</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>473</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -9923,7 +9814,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
@@ -9940,25 +9831,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>558</v>
+        <v>442</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>473</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>12</v>
@@ -9967,7 +9858,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -9984,25 +9875,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>558</v>
+        <v>443</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>473</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>16</v>
@@ -10011,7 +9902,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>14</v>
@@ -10028,9 +9919,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -10116,11 +10007,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\1.PNG" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\2.PNG" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\3.PNG" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\4.PNG" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\4.PNG" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\4.PNG"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\4.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -10128,11 +10019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10182,13 +10073,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="36" t="s">
+      <c r="M1" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10200,25 +10091,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>559</v>
+        <v>444</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>474</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
@@ -10227,7 +10118,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>14</v>
@@ -10244,25 +10135,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>559</v>
+        <v>445</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>474</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>274</v>
+        <v>526</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -10271,7 +10162,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -10288,9 +10179,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -10331,20 +10222,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c5\\1.PNG" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c5\\2.PNG" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c5\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c5\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10397,13 +10288,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10415,25 +10306,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>560</v>
+        <v>446</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>475</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
@@ -10442,7 +10333,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>14</v>
@@ -10459,34 +10350,34 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>532</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>470</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
@@ -10503,9 +10394,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -10595,9 +10486,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\1.PNG" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\2.PNG" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\2.PNG" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\2.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -10605,11 +10496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10658,13 +10549,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10676,25 +10567,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>561</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>13</v>
@@ -10703,7 +10594,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -10720,16 +10611,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>562</v>
+        <v>449</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>477</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>14</v>
@@ -10764,25 +10655,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>561</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>475</v>
-      </c>
       <c r="H4" s="17" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>14</v>
@@ -10791,7 +10682,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -10808,9 +10699,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D5" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -11033,10 +10924,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\2.PNG" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\3.PNG" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\3.PNG" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\3.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -11044,12 +10935,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11100,13 +10991,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>397</v>
       </c>
     </row>
@@ -11118,34 +11009,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>563</v>
+        <v>451</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>478</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>481</v>
+        <v>566</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>436</v>
+        <v>569</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -11163,25 +11054,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>563</v>
+        <v>452</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>478</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -11190,7 +11081,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>14</v>
@@ -11208,25 +11099,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>563</v>
+        <v>453</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>478</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>13</v>
@@ -11235,7 +11126,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>14</v>
@@ -11253,25 +11144,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>483</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>12</v>
@@ -11280,7 +11171,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>14</v>
@@ -11298,9 +11189,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D6" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -11561,11 +11452,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\1.PNG" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\2.PNG" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\3.PNG" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\4.PNG" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\4.PNG" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\4.PNG"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\4.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -11573,12 +11464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C5"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11625,13 +11516,13 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="N1" s="38" t="s">
+      <c r="M1" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>397</v>
       </c>
     </row>
@@ -11643,34 +11534,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>564</v>
+        <v>455</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>479</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -11687,16 +11578,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>564</v>
+        <v>456</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>479</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>495</v>
+        <v>419</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>14</v>
@@ -11731,25 +11622,25 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>564</v>
+        <v>457</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>479</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>272</v>
+        <v>547</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>13</v>
@@ -11758,7 +11649,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -11775,9 +11666,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D5" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -11945,10 +11836,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\1.PNG" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\2.PNG" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\3.PNG" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\3.PNG" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\1.PNG"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\2.PNG"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\3.PNG"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\3.PNG"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,31 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\26-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\27-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
     <sheet name="2" sheetId="10" r:id="rId2"/>
-    <sheet name="3" sheetId="11" r:id="rId3"/>
-    <sheet name="4" sheetId="12" r:id="rId4"/>
-    <sheet name="5" sheetId="13" r:id="rId5"/>
-    <sheet name="6" sheetId="15" r:id="rId6"/>
-    <sheet name="7" sheetId="14" r:id="rId7"/>
-    <sheet name="8" sheetId="5" r:id="rId8"/>
-    <sheet name="9" sheetId="6" r:id="rId9"/>
-    <sheet name="10" sheetId="3" r:id="rId10"/>
-    <sheet name="11" sheetId="16" r:id="rId11"/>
-    <sheet name="12" sheetId="17" r:id="rId12"/>
-    <sheet name="13" sheetId="18" r:id="rId13"/>
-    <sheet name="4-old" sheetId="2" r:id="rId14"/>
-    <sheet name="3-old" sheetId="1" r:id="rId15"/>
-    <sheet name="5-old" sheetId="7" r:id="rId16"/>
-    <sheet name="6-old" sheetId="8" r:id="rId17"/>
-    <sheet name="7-old" sheetId="4" r:id="rId18"/>
+    <sheet name="3" sheetId="20" r:id="rId3"/>
+    <sheet name="4" sheetId="11" r:id="rId4"/>
+    <sheet name="5" sheetId="12" r:id="rId5"/>
+    <sheet name="6" sheetId="13" r:id="rId6"/>
+    <sheet name="7" sheetId="15" r:id="rId7"/>
+    <sheet name="8" sheetId="14" r:id="rId8"/>
+    <sheet name="9" sheetId="5" r:id="rId9"/>
+    <sheet name="10" sheetId="6" r:id="rId10"/>
+    <sheet name="11" sheetId="3" r:id="rId11"/>
+    <sheet name="12" sheetId="16" r:id="rId12"/>
+    <sheet name="13" sheetId="17" r:id="rId13"/>
+    <sheet name="14" sheetId="18" r:id="rId14"/>
+    <sheet name="4-old" sheetId="2" r:id="rId15"/>
+    <sheet name="3-old" sheetId="1" r:id="rId16"/>
+    <sheet name="5-old" sheetId="7" r:id="rId17"/>
+    <sheet name="6-old" sheetId="8" r:id="rId18"/>
+    <sheet name="7-old" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="621">
   <si>
     <t>nActi</t>
   </si>
@@ -1411,9 +1412,6 @@
     <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c4\\3.PNG</t>
   </si>
   <si>
-    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c4\\4.PNG</t>
-  </si>
-  <si>
     <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c5\\1.PNG</t>
   </si>
   <si>
@@ -1432,9 +1430,6 @@
     <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c7\\2.PNG</t>
   </si>
   <si>
-    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c7\\3.PNG</t>
-  </si>
-  <si>
     <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c8\\1.PNG</t>
   </si>
   <si>
@@ -1442,9 +1437,6 @@
   </si>
   <si>
     <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c8\\3.PNG</t>
-  </si>
-  <si>
-    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c8\\4.PNG</t>
   </si>
   <si>
     <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c9\\1.PNG</t>
@@ -1500,368 +1492,466 @@
 Kiểu Karman siêu âm</t>
   </si>
   <si>
-    <t>Bài 3: Cảm Biến Áp Suất Không Khí Nạp</t>
-  </si>
-  <si>
-    <t>Bài 4: Cảm Biến G và Cảm Biến Ne
-Cảm biến điện từ (Bố trí trong bộ chia điện)</t>
-  </si>
-  <si>
     <t>Bài 5: Cảm Biến G và Cảm Biến Ne
 Cảm biến Hall (Bố trí trong bộ chia điện)</t>
   </si>
   <si>
+    <t>A. 5,2 kΩ</t>
+  </si>
+  <si>
+    <t>B. 470 Ω</t>
+  </si>
+  <si>
+    <t>C. Lấy tín hiệu R_THA</t>
+  </si>
+  <si>
+    <t>D. 3,5 kΩ</t>
+  </si>
+  <si>
+    <t>A. 0,57 V</t>
+  </si>
+  <si>
+    <t>B. 3,12 V</t>
+  </si>
+  <si>
+    <t>C. 1,14 V</t>
+  </si>
+  <si>
+    <t>D. Lấy tín hiệu R_THA</t>
+  </si>
+  <si>
+    <t>A. 3,49 kΩ</t>
+  </si>
+  <si>
+    <t>B. 3,17 Ω</t>
+  </si>
+  <si>
+    <t>C. 1,04 V</t>
+  </si>
+  <si>
+    <t>A. Điện áp từ 0 - 2,4V</t>
+  </si>
+  <si>
+    <t>B. Xung vuông 0 - 5V</t>
+  </si>
+  <si>
+    <t>C. Xung điện áp 1 - 4V</t>
+  </si>
+  <si>
+    <t>A. 5,1 V</t>
+  </si>
+  <si>
+    <t>B. Lấy tín hiệu</t>
+  </si>
+  <si>
+    <t>C. 0,83 V</t>
+  </si>
+  <si>
+    <t>D. 2,02 V</t>
+  </si>
+  <si>
+    <t>D. Điện áp từ 0,5 - 4,5V</t>
+  </si>
+  <si>
+    <t>D. 2,76 kΩ</t>
+  </si>
+  <si>
+    <t>A. Càng tăng</t>
+  </si>
+  <si>
+    <t>B. Càng giảm</t>
+  </si>
+  <si>
+    <t>C. Tăng đến một mức nào đó rồi giảm</t>
+  </si>
+  <si>
+    <t>D. Giảm đến mức nào đó rồi tăng</t>
+  </si>
+  <si>
+    <t>A. G: 170 Ω; Ne: 166 Ω</t>
+  </si>
+  <si>
+    <t>B. G: 170 Ω; Ne: 190 Ω</t>
+  </si>
+  <si>
+    <t>C. G: 150 Ω; Ne: 166 Ω</t>
+  </si>
+  <si>
+    <t>A. ∆ = 0,2 - 0,4 mm</t>
+  </si>
+  <si>
+    <t>B. ∆ = 2 - 4 mm</t>
+  </si>
+  <si>
+    <t>C. ∆ = 0,5 - 0,7 mm</t>
+  </si>
+  <si>
+    <t>A. Xung vuông 0 - 5V</t>
+  </si>
+  <si>
+    <t>B. Điện áp từ 0 - 1V</t>
+  </si>
+  <si>
+    <t>C. Xung điện áp từ 0 - 5V</t>
+  </si>
+  <si>
+    <t>A. Lượng từ thông qua cuộn dây là nhỏ nhất.</t>
+  </si>
+  <si>
+    <t>B. Sự thay đổi từ thông qua cuộn dây là nhỏ nhất.</t>
+  </si>
+  <si>
+    <t>C. Lượng từ thông qua cuộn dây là lớn nhất.</t>
+  </si>
+  <si>
+    <t>A. G: 186 Ω; Ne: 202 Ω</t>
+  </si>
+  <si>
+    <t>B. ∆ = 5 - 7 mm</t>
+  </si>
+  <si>
+    <t>C. Xung điện áp từ 0 - 4V</t>
+  </si>
+  <si>
+    <t>D. Sự thay đổi từ thông qua cuộn dây là lớn nhất.</t>
+  </si>
+  <si>
+    <t>D. Xung điện áp từ 0 - 4V</t>
+  </si>
+  <si>
+    <t>A. 5 V</t>
+  </si>
+  <si>
+    <t>B. 0 V</t>
+  </si>
+  <si>
+    <t>C. 2,5 V</t>
+  </si>
+  <si>
+    <t>D. 1 V</t>
+  </si>
+  <si>
+    <t>A. Piston số 4 ở điểm chết trên.</t>
+  </si>
+  <si>
+    <t>B. Piston số 4 ở điểm chết dưới.</t>
+  </si>
+  <si>
+    <t>C. Piston số 1 ở điểm chết trên.</t>
+  </si>
+  <si>
+    <t>D. Piston số 1 ở điểm chết dưới.</t>
+  </si>
+  <si>
+    <t>B. Lấy tín hiệu R_THA</t>
+  </si>
+  <si>
+    <t>C. 450 Ω</t>
+  </si>
+  <si>
+    <t>A. 60ºC</t>
+  </si>
+  <si>
+    <t>B. 70ºC</t>
+  </si>
+  <si>
+    <t>C. 80ºC</t>
+  </si>
+  <si>
+    <t>D. 90ºC</t>
+  </si>
+  <si>
+    <t>A. IDL = 0 V</t>
+  </si>
+  <si>
+    <t>B. PSW = 0 V</t>
+  </si>
+  <si>
+    <t>B. PSW = 5 V</t>
+  </si>
+  <si>
+    <t>C. IDL = 5 V</t>
+  </si>
+  <si>
+    <t>C. PSW = 0 V</t>
+  </si>
+  <si>
+    <t>D. Cả A và B đều đúng.</t>
+  </si>
+  <si>
+    <t>D. Cả A và C đều đúng.</t>
+  </si>
+  <si>
+    <t>B. 10 V</t>
+  </si>
+  <si>
+    <t>C. 12 V</t>
+  </si>
+  <si>
+    <t>D. 7 V</t>
+  </si>
+  <si>
+    <t>A. 0,45V - 0,65V</t>
+  </si>
+  <si>
+    <t>B. 4,5V - 5,3V</t>
+  </si>
+  <si>
+    <t>C. 0V</t>
+  </si>
+  <si>
+    <t>D. 2,5V - 2,7V</t>
+  </si>
+  <si>
+    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải)</t>
+  </si>
+  <si>
+    <t>A. 1 là E2, 2 là THA, 3 là VG, 4 là EVG, 5 là +B</t>
+  </si>
+  <si>
+    <t>B. 1 là VG, 2 là EVG, 3 là +B, 4 là E2, 5 là THA</t>
+  </si>
+  <si>
+    <t>C. 1 là E2, 2 là +B, 3 là VG, 4 là EVG, 5 là THA</t>
+  </si>
+  <si>
+    <t>D. 1 là THA, 2 là E2, 3 là VG, 4 là EVG, 5 là +B</t>
+  </si>
+  <si>
+    <t>A. 1 là +B, 2 là KS, 3 là VC, 4 là THA, 5 là PA, 6 là GND</t>
+  </si>
+  <si>
+    <t>B. 1 là KS, 2 là +B, 3 là THA, 4 là GND, 5 là PA, 6 là VC</t>
+  </si>
+  <si>
+    <t>C. 1 là KS, 2 là +B, 3 là VC, 4 là GND, 5 là PA, 6 là THA</t>
+  </si>
+  <si>
+    <t>D. 1 là +B, 2 là KS, 3 là PA, 4 là THA, 5 là GND, 6 là VC</t>
+  </si>
+  <si>
+    <t>A. 1 là E2, 2 là PIM, 3 là VC</t>
+  </si>
+  <si>
+    <t>B. 1 là VC, 2 là E2, 3 là PIM</t>
+  </si>
+  <si>
+    <t>C. 1 là PIM, 2 là VC, 3 là E2</t>
+  </si>
+  <si>
+    <t>D. 1 là PIM, 2 là E2, 3 là VC</t>
+  </si>
+  <si>
+    <t>A. 1 là IDL, 2 là E, 3 là PSW</t>
+  </si>
+  <si>
+    <t>B. 1 là PSW, 2 là IDL, 3 là E</t>
+  </si>
+  <si>
+    <t>C. 1 là IDL, 2 là PSW, 3 là E</t>
+  </si>
+  <si>
+    <t>D. 1 là E, 2 là IDL, 3 là PSW</t>
+  </si>
+  <si>
+    <t>A. 1 là VTA, 2 là VC, 3 là IDL, 4 là E2</t>
+  </si>
+  <si>
+    <t>B. 1 là VTA, 2 là VC, 3 là E2, 4 là IDL</t>
+  </si>
+  <si>
+    <t>C. 1 là VC, 2 là E2, 3 là IDL, 4 là VTA</t>
+  </si>
+  <si>
+    <t>D. 1 là VC, 2 là VTA, 3 là IDL, 4 là E2</t>
+  </si>
+  <si>
+    <t>A. 1 là VTA, 2 là EC, 3 là E2</t>
+  </si>
+  <si>
+    <t>B. 1 là VTA, 2 là E2, 3 là VC</t>
+  </si>
+  <si>
+    <t>C. 1 là VC, 2 là E2, 3 là VTA</t>
+  </si>
+  <si>
+    <t>D. 1 là E2, 2 là VC, 3 là VTA</t>
+  </si>
+  <si>
+    <t>A. 1 là VTA, 2 là VTA2, 3 là VC, 4 là E2, 5 là M-, 6 là M+</t>
+  </si>
+  <si>
+    <t>B. 1 là VTA, 2 là VC, 3 là VTA2, 4 là E2, 5 là M-, 6 là M+</t>
+  </si>
+  <si>
+    <t>C. 1 là E2, 2 là VTA2, 3 là VTA, 4 là VC, 5 là M-, 6 là M+</t>
+  </si>
+  <si>
+    <t>D. 1 là VTA, 2 là VTA2, 3 là M-, 4 là M+, 5 là E2, 6 là VC</t>
+  </si>
+  <si>
+    <t>A. 1 là VCPA1, 2 là VPA1, 3 là VCPA2, 4 là EPA2, 5 là EPA1, 6 là VPA2</t>
+  </si>
+  <si>
+    <t>B. 1 là VCPA1, 2 là VCPA2, 3 là VPA1, 4 là VPA2, 5 là EPA1, 6 là EPA2</t>
+  </si>
+  <si>
+    <t>C. 1 là VCPA2, 2 là VCPA1, 3 là EPA1, 4 là EPA2, 5 là VPA1, 6 là VPA2</t>
+  </si>
+  <si>
+    <t>D. 1 là EPA1, 2 là VPA2, 3 là EPA2, 4 là VCPA1, 5 là VPA1, 6 là VCPA2</t>
+  </si>
+  <si>
+    <t>A. 1 là VPA1, 2 là EPA1, 3 là VCPA1, 4 là VPA2, 5 là EPA2, 6 là VCPA2</t>
+  </si>
+  <si>
+    <t>B. 1 là EPA2, 2 là VCPA2, 3 là VPA1, 4 là EPA1, 5 là VCPA1, 6 là VPA2</t>
+  </si>
+  <si>
+    <t>C. 1 là VPA2, 2 là VPA1, 3 là EPA1, 4 là EPA2, 5 là VCPA1, 6 là VCPA2</t>
+  </si>
+  <si>
+    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải).</t>
+  </si>
+  <si>
+    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải)?</t>
+  </si>
+  <si>
+    <t>tendothi</t>
+  </si>
+  <si>
+    <t>madothi</t>
+  </si>
+  <si>
+    <t>chancb</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>quý ăn cức</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>.0</t>
+  </si>
+  <si>
+    <t>A. 1 là FC, 2 là E1, 3 là E2, 4 là VC, 5 là E2, 6 là VS, 7 là THA</t>
+  </si>
+  <si>
+    <t>C. 1 là THA, 2 là VS, 3 là FC, 4 là E1, 5 là E2, 6 là VC, 7 là E2</t>
+  </si>
+  <si>
+    <t>B. 1 là FC, 2 là E2, 3 là E1, 4 là VC, 5 là E2, 6 là THA, 7 là VS</t>
+  </si>
+  <si>
+    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c3\\4.PNG</t>
+  </si>
+  <si>
+    <t>Câu 2: Điện áp tín hiệu chân VS khi cánh cảm biến đóng(Chọn đáp án gần đúng)</t>
+  </si>
+  <si>
+    <t>A. 4,29 V</t>
+  </si>
+  <si>
+    <t>B. 3,44 V</t>
+  </si>
+  <si>
+    <t>C. 2,29 V</t>
+  </si>
+  <si>
+    <t>D. 1 là VS, 2 là THA, 3 là E2, 4 là E1, 5 là E2, 6 là VC, 7 là FC</t>
+  </si>
+  <si>
+    <t>D. 0,44 V</t>
+  </si>
+  <si>
+    <t>Câu 3: Điện áp tín hiệu chân VS khi cánh cảm biến mở hết (Chọn đáp án gần đúng)</t>
+  </si>
+  <si>
+    <t>Câu 4: Điện áp tín hiệu chân FC khi cánh cảm biến đóng, Contact máy ở IG.</t>
+  </si>
+  <si>
+    <t>A. 12 V</t>
+  </si>
+  <si>
+    <t>B. 5 V</t>
+  </si>
+  <si>
+    <t>C. 10 V</t>
+  </si>
+  <si>
+    <t>Bài 3: Cảm Biến Lưu Lượng Không Khí Nạp
+Kiểu van trượt</t>
+  </si>
+  <si>
+    <t>Bài 4: Cảm Biến Áp Suất Không Khí Nạp</t>
+  </si>
+  <si>
+    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c5\\4.PNG</t>
+  </si>
+  <si>
+    <t>Bài 5: Cảm Biến G và Cảm Biến Ne
+Cảm biến điện từ (Bố trí trong bộ chia điện)</t>
+  </si>
+  <si>
     <t>Bài 6: Cảm Biến G và Cảm Biến Ne
+Cảm biến Hall (Bố trí trong bộ chia điện)</t>
+  </si>
+  <si>
+    <t>Bài 7: Cảm Biến G và Cảm Biến Ne
 Cảm biến quang (Bố trí trong bộ chia điện)</t>
   </si>
   <si>
-    <t>Bài 7: Cảm Biến Nhiệt Độ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bài 7: Cảm Biến Nhiệt Độ
+    <t>Bài 8: Cảm Biến Nhiệt Độ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài 8: Cảm Biến Nhiệt Độ
 </t>
   </si>
   <si>
-    <t>Bài 8: Cảm biến vị trí bướm ga kiểu tiếp điểm</t>
-  </si>
-  <si>
-    <t>Bài 9: Cảm biến vị trí bướm ga kiểu tuyến tính có tiếp điểm IDL</t>
-  </si>
-  <si>
-    <t>Bài 10: Cảm biến vị trí bướm ga kiểu tuyến tính không có tiếp điểm IDL</t>
-  </si>
-  <si>
-    <t>Bài 11: Cảm biến vị trí bướm ga kiểu phần tử Hall</t>
-  </si>
-  <si>
-    <t>Bài 12: Cảm biến bàn đạp ga kiểu tuyến tính</t>
-  </si>
-  <si>
-    <t>Bài 13: Cảm biến bàn đạp ga kiểu phần tử hall</t>
-  </si>
-  <si>
-    <t>A. 5,2 kΩ</t>
-  </si>
-  <si>
-    <t>B. 470 Ω</t>
-  </si>
-  <si>
-    <t>C. Lấy tín hiệu R_THA</t>
-  </si>
-  <si>
-    <t>D. 3,5 kΩ</t>
-  </si>
-  <si>
-    <t>A. 0,57 V</t>
-  </si>
-  <si>
-    <t>B. 3,12 V</t>
-  </si>
-  <si>
-    <t>C. 1,14 V</t>
-  </si>
-  <si>
-    <t>D. Lấy tín hiệu R_THA</t>
-  </si>
-  <si>
-    <t>A. 3,49 kΩ</t>
-  </si>
-  <si>
-    <t>B. 3,17 Ω</t>
-  </si>
-  <si>
-    <t>C. 1,04 V</t>
-  </si>
-  <si>
-    <t>A. Điện áp từ 0 - 2,4V</t>
-  </si>
-  <si>
-    <t>B. Xung vuông 0 - 5V</t>
-  </si>
-  <si>
-    <t>C. Xung điện áp 1 - 4V</t>
-  </si>
-  <si>
-    <t>A. 5,1 V</t>
-  </si>
-  <si>
-    <t>B. Lấy tín hiệu</t>
-  </si>
-  <si>
-    <t>C. 0,83 V</t>
-  </si>
-  <si>
-    <t>D. 2,02 V</t>
-  </si>
-  <si>
-    <t>D. Điện áp từ 0,5 - 4,5V</t>
-  </si>
-  <si>
-    <t>D. 2,76 kΩ</t>
-  </si>
-  <si>
-    <t>A. Càng tăng</t>
-  </si>
-  <si>
-    <t>B. Càng giảm</t>
-  </si>
-  <si>
-    <t>C. Tăng đến một mức nào đó rồi giảm</t>
-  </si>
-  <si>
-    <t>D. Giảm đến mức nào đó rồi tăng</t>
-  </si>
-  <si>
-    <t>A. G: 170 Ω; Ne: 166 Ω</t>
-  </si>
-  <si>
-    <t>B. G: 170 Ω; Ne: 190 Ω</t>
-  </si>
-  <si>
-    <t>C. G: 150 Ω; Ne: 166 Ω</t>
-  </si>
-  <si>
-    <t>A. ∆ = 0,2 - 0,4 mm</t>
-  </si>
-  <si>
-    <t>B. ∆ = 2 - 4 mm</t>
-  </si>
-  <si>
-    <t>C. ∆ = 0,5 - 0,7 mm</t>
-  </si>
-  <si>
-    <t>A. Xung vuông 0 - 5V</t>
-  </si>
-  <si>
-    <t>B. Điện áp từ 0 - 1V</t>
-  </si>
-  <si>
-    <t>C. Xung điện áp từ 0 - 5V</t>
-  </si>
-  <si>
-    <t>A. Lượng từ thông qua cuộn dây là nhỏ nhất.</t>
-  </si>
-  <si>
-    <t>B. Sự thay đổi từ thông qua cuộn dây là nhỏ nhất.</t>
-  </si>
-  <si>
-    <t>C. Lượng từ thông qua cuộn dây là lớn nhất.</t>
-  </si>
-  <si>
-    <t>A. G: 186 Ω; Ne: 202 Ω</t>
-  </si>
-  <si>
-    <t>B. ∆ = 5 - 7 mm</t>
-  </si>
-  <si>
-    <t>C. Xung điện áp từ 0 - 4V</t>
-  </si>
-  <si>
-    <t>D. Sự thay đổi từ thông qua cuộn dây là lớn nhất.</t>
-  </si>
-  <si>
-    <t>D. Xung điện áp từ 0 - 4V</t>
-  </si>
-  <si>
-    <t>A. 5 V</t>
-  </si>
-  <si>
-    <t>B. 0 V</t>
-  </si>
-  <si>
-    <t>C. 2,5 V</t>
-  </si>
-  <si>
-    <t>D. 1 V</t>
-  </si>
-  <si>
-    <t>A. Piston số 4 ở điểm chết trên.</t>
-  </si>
-  <si>
-    <t>B. Piston số 4 ở điểm chết dưới.</t>
-  </si>
-  <si>
-    <t>C. Piston số 1 ở điểm chết trên.</t>
-  </si>
-  <si>
-    <t>D. Piston số 1 ở điểm chết dưới.</t>
-  </si>
-  <si>
-    <t>B. Lấy tín hiệu R_THA</t>
-  </si>
-  <si>
-    <t>C. 450 Ω</t>
-  </si>
-  <si>
-    <t>A. 60ºC</t>
-  </si>
-  <si>
-    <t>B. 70ºC</t>
-  </si>
-  <si>
-    <t>C. 80ºC</t>
-  </si>
-  <si>
-    <t>D. 90ºC</t>
-  </si>
-  <si>
-    <t>A. IDL = 0 V</t>
-  </si>
-  <si>
-    <t>B. PSW = 0 V</t>
-  </si>
-  <si>
-    <t>B. PSW = 5 V</t>
-  </si>
-  <si>
-    <t>C. IDL = 5 V</t>
-  </si>
-  <si>
-    <t>C. PSW = 0 V</t>
-  </si>
-  <si>
-    <t>D. Cả A và B đều đúng.</t>
-  </si>
-  <si>
-    <t>D. Cả A và C đều đúng.</t>
-  </si>
-  <si>
-    <t>B. 10 V</t>
-  </si>
-  <si>
-    <t>C. 12 V</t>
-  </si>
-  <si>
-    <t>D. 7 V</t>
-  </si>
-  <si>
-    <t>A. 0,45V - 0,65V</t>
-  </si>
-  <si>
-    <t>B. 4,5V - 5,3V</t>
-  </si>
-  <si>
-    <t>C. 0V</t>
-  </si>
-  <si>
-    <t>D. 2,5V - 2,7V</t>
-  </si>
-  <si>
-    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải)</t>
-  </si>
-  <si>
-    <t>A. 1 là E2, 2 là THA, 3 là VG, 4 là EVG, 5 là +B</t>
-  </si>
-  <si>
-    <t>B. 1 là VG, 2 là EVG, 3 là +B, 4 là E2, 5 là THA</t>
-  </si>
-  <si>
-    <t>C. 1 là E2, 2 là +B, 3 là VG, 4 là EVG, 5 là THA</t>
-  </si>
-  <si>
-    <t>D. 1 là THA, 2 là E2, 3 là VG, 4 là EVG, 5 là +B</t>
-  </si>
-  <si>
-    <t>A. 1 là +B, 2 là KS, 3 là VC, 4 là THA, 5 là PA, 6 là GND</t>
-  </si>
-  <si>
-    <t>B. 1 là KS, 2 là +B, 3 là THA, 4 là GND, 5 là PA, 6 là VC</t>
-  </si>
-  <si>
-    <t>C. 1 là KS, 2 là +B, 3 là VC, 4 là GND, 5 là PA, 6 là THA</t>
-  </si>
-  <si>
-    <t>D. 1 là +B, 2 là KS, 3 là PA, 4 là THA, 5 là GND, 6 là VC</t>
-  </si>
-  <si>
-    <t>A. 1 là E2, 2 là PIM, 3 là VC</t>
-  </si>
-  <si>
-    <t>B. 1 là VC, 2 là E2, 3 là PIM</t>
-  </si>
-  <si>
-    <t>C. 1 là PIM, 2 là VC, 3 là E2</t>
-  </si>
-  <si>
-    <t>D. 1 là PIM, 2 là E2, 3 là VC</t>
-  </si>
-  <si>
-    <t>A. 1 là IDL, 2 là E, 3 là PSW</t>
-  </si>
-  <si>
-    <t>B. 1 là PSW, 2 là IDL, 3 là E</t>
-  </si>
-  <si>
-    <t>C. 1 là IDL, 2 là PSW, 3 là E</t>
-  </si>
-  <si>
-    <t>D. 1 là E, 2 là IDL, 3 là PSW</t>
-  </si>
-  <si>
-    <t>A. 1 là VTA, 2 là VC, 3 là IDL, 4 là E2</t>
-  </si>
-  <si>
-    <t>B. 1 là VTA, 2 là VC, 3 là E2, 4 là IDL</t>
-  </si>
-  <si>
-    <t>C. 1 là VC, 2 là E2, 3 là IDL, 4 là VTA</t>
-  </si>
-  <si>
-    <t>D. 1 là VC, 2 là VTA, 3 là IDL, 4 là E2</t>
-  </si>
-  <si>
-    <t>A. 1 là VTA, 2 là EC, 3 là E2</t>
-  </si>
-  <si>
-    <t>B. 1 là VTA, 2 là E2, 3 là VC</t>
-  </si>
-  <si>
-    <t>C. 1 là VC, 2 là E2, 3 là VTA</t>
-  </si>
-  <si>
-    <t>D. 1 là E2, 2 là VC, 3 là VTA</t>
-  </si>
-  <si>
-    <t>A. 1 là VTA, 2 là VTA2, 3 là VC, 4 là E2, 5 là M-, 6 là M+</t>
-  </si>
-  <si>
-    <t>B. 1 là VTA, 2 là VC, 3 là VTA2, 4 là E2, 5 là M-, 6 là M+</t>
-  </si>
-  <si>
-    <t>C. 1 là E2, 2 là VTA2, 3 là VTA, 4 là VC, 5 là M-, 6 là M+</t>
-  </si>
-  <si>
-    <t>D. 1 là VTA, 2 là VTA2, 3 là M-, 4 là M+, 5 là E2, 6 là VC</t>
-  </si>
-  <si>
-    <t>A. 1 là VCPA1, 2 là VPA1, 3 là VCPA2, 4 là EPA2, 5 là EPA1, 6 là VPA2</t>
-  </si>
-  <si>
-    <t>B. 1 là VCPA1, 2 là VCPA2, 3 là VPA1, 4 là VPA2, 5 là EPA1, 6 là EPA2</t>
-  </si>
-  <si>
-    <t>C. 1 là VCPA2, 2 là VCPA1, 3 là EPA1, 4 là EPA2, 5 là VPA1, 6 là VPA2</t>
-  </si>
-  <si>
-    <t>D. 1 là EPA1, 2 là VPA2, 3 là EPA2, 4 là VCPA1, 5 là VPA1, 6 là VCPA2</t>
-  </si>
-  <si>
-    <t>A. 1 là VPA1, 2 là EPA1, 3 là VCPA1, 4 là VPA2, 5 là EPA2, 6 là VCPA2</t>
-  </si>
-  <si>
-    <t>B. 1 là EPA2, 2 là VCPA2, 3 là VPA1, 4 là EPA1, 5 là VCPA1, 6 là VPA2</t>
-  </si>
-  <si>
-    <t>C. 1 là VPA2, 2 là VPA1, 3 là EPA1, 4 là EPA2, 5 là VCPA1, 6 là VCPA2</t>
-  </si>
-  <si>
-    <t>1 là VCPA1, 2 là VCPA2, 3 là EPA1, 4 là EPA2, 5 là VPA1, 6 là VPA2</t>
-  </si>
-  <si>
-    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải).</t>
-  </si>
-  <si>
-    <t>Câu 1: Xác định các chân của cảm biến (Theo hướng giắc đực từ trái sang phải)?</t>
+    <t>Bài 9: Cảm biến vị trí bướm ga kiểu tiếp điểm</t>
+  </si>
+  <si>
+    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c9\\4.PNG</t>
+  </si>
+  <si>
+    <t>Bài 10: Cảm biến vị trí bướm ga kiểu tuyến tính có tiếp điểm IDL</t>
+  </si>
+  <si>
+    <t>Bài 11: Cảm biến vị trí bướm ga kiểu tuyến tính không có tiếp điểm IDL</t>
+  </si>
+  <si>
+    <t>Bài 12: Cảm biến vị trí bướm ga kiểu phần tử Hall</t>
+  </si>
+  <si>
+    <t>Bài 13: Cảm biến bàn đạp ga kiểu tuyến tính</t>
+  </si>
+  <si>
+    <t>Bài 14: Cảm biến bàn đạp ga kiểu phần tử hall</t>
+  </si>
+  <si>
+    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c14\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c14\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c14\\1.PNG</t>
+  </si>
+  <si>
+    <t>D. 1 là VCPA1, 2 là VCPA2, 3 là EPA1, 4 là EPA2, 5 là VPA1, 6 là VPA2</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2095,9 +2185,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2428,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2451,7 +2538,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2494,8 +2581,20 @@
       <c r="N1" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -2505,23 +2604,23 @@
       <c r="C2" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>470</v>
+      <c r="D2" s="39" t="s">
+        <v>467</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
@@ -2530,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -2538,8 +2637,20 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -2549,8 +2660,8 @@
       <c r="C3" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>470</v>
+      <c r="D3" s="39" t="s">
+        <v>467</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -2559,13 +2670,13 @@
         <v>398</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>12</v>
@@ -2574,7 +2685,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -2582,8 +2693,20 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -2593,8 +2716,8 @@
       <c r="C4" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>470</v>
+      <c r="D4" s="39" t="s">
+        <v>467</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -2603,13 +2726,13 @@
         <v>399</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>16</v>
@@ -2618,7 +2741,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -2626,8 +2749,20 @@
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -2637,8 +2772,8 @@
       <c r="C5" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>470</v>
+      <c r="D5" s="39" t="s">
+        <v>467</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>13</v>
@@ -2670,8 +2805,20 @@
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2681,7 +2828,7 @@
       <c r="C6" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -2714,8 +2861,20 @@
       <c r="N6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -2729,7 +2888,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
@@ -2741,7 +2900,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -2753,7 +2912,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -2765,7 +2924,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -2777,7 +2936,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -2789,7 +2948,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -2801,7 +2960,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -2813,7 +2972,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
@@ -2825,7 +2984,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
@@ -2865,11 +3024,453 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.6640625" style="20"/>
+    <col min="3" max="3" width="48.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="20"/>
+    <col min="6" max="6" width="63.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="13.6640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2882,7 +3483,7 @@
     <col min="7" max="16384" width="16.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2916,17 +3517,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2936,23 +3549,23 @@
       <c r="C2" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>480</v>
+      <c r="D2" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>13</v>
@@ -2961,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -2969,8 +3582,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O2" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -2980,8 +3605,8 @@
       <c r="C3" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>480</v>
+      <c r="D3" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -2990,13 +3615,13 @@
         <v>420</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -3005,7 +3630,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
@@ -3013,8 +3638,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3024,8 +3661,8 @@
       <c r="C4" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>480</v>
+      <c r="D4" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -3057,8 +3694,20 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -3068,7 +3717,7 @@
       <c r="C5" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3101,8 +3750,20 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -3117,7 +3778,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
@@ -3130,7 +3791,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4"/>
@@ -3143,7 +3804,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4"/>
@@ -3156,7 +3817,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4"/>
@@ -3169,7 +3830,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
@@ -3182,7 +3843,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="4"/>
@@ -3195,7 +3856,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
@@ -3208,7 +3869,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
@@ -3221,7 +3882,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="4"/>
@@ -3234,7 +3895,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4"/>
@@ -3367,22 +4028,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c10\\3.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3393,7 +4054,7 @@
     <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3427,17 +4088,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -3447,23 +4120,23 @@
       <c r="C2" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>481</v>
+      <c r="D2" s="39" t="s">
+        <v>614</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>13</v>
@@ -3472,7 +4145,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -3480,8 +4153,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -3491,8 +4176,8 @@
       <c r="C3" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>481</v>
+      <c r="D3" s="39" t="s">
+        <v>614</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -3524,8 +4209,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3535,8 +4232,8 @@
       <c r="C4" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>481</v>
+      <c r="D4" s="39" t="s">
+        <v>614</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -3568,8 +4265,20 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -3579,7 +4288,7 @@
       <c r="C5" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3612,29 +4321,41 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c11\\3.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3645,7 +4366,7 @@
     <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3679,17 +4400,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -3699,23 +4432,23 @@
       <c r="C2" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>482</v>
+      <c r="D2" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>16</v>
@@ -3724,7 +4457,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -3732,8 +4465,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -3743,8 +4488,8 @@
       <c r="C3" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>482</v>
+      <c r="D3" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -3776,8 +4521,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -3787,8 +4544,8 @@
       <c r="C4" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>482</v>
+      <c r="D4" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -3820,8 +4577,20 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -3831,7 +4600,7 @@
       <c r="C5" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3864,29 +4633,41 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c12\\3.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3902,7 +4683,7 @@
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3936,17 +4717,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -3954,25 +4747,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>483</v>
+        <v>619</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>616</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -3981,7 +4774,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -3989,8 +4782,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -3998,10 +4803,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>483</v>
+        <v>618</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>616</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -4033,8 +4838,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -4042,10 +4859,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>483</v>
+        <v>617</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>616</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -4077,8 +4894,20 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -4086,9 +4915,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -4121,24 +4950,36 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c13\\3.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -5008,7 +5849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
@@ -5064,11 +5905,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5104,10 +5945,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="41"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -5143,10 +5984,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="41"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -5182,10 +6023,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="41"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -6273,7 +7114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -7442,7 +8283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -8165,7 +9006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -8958,10 +9799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8980,7 +9821,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9023,9 +9864,20 @@
       <c r="N1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="O1" s="36"/>
-    </row>
-    <row r="2" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -9035,23 +9887,23 @@
       <c r="C2" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>471</v>
+      <c r="D2" s="39" t="s">
+        <v>468</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>12</v>
@@ -9060,7 +9912,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
@@ -9068,8 +9920,20 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -9079,8 +9943,8 @@
       <c r="C3" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>471</v>
+      <c r="D3" s="39" t="s">
+        <v>468</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -9089,13 +9953,13 @@
         <v>398</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>12</v>
@@ -9104,7 +9968,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -9112,8 +9976,20 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9123,8 +9999,8 @@
       <c r="C4" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>471</v>
+      <c r="D4" s="39" t="s">
+        <v>468</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -9133,13 +10009,13 @@
         <v>401</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>16</v>
@@ -9148,7 +10024,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -9156,8 +10032,20 @@
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -9167,8 +10055,8 @@
       <c r="C5" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>471</v>
+      <c r="D5" s="39" t="s">
+        <v>468</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
@@ -9177,13 +10065,13 @@
         <v>402</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>13</v>
@@ -9192,7 +10080,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>14</v>
@@ -9200,8 +10088,20 @@
       <c r="N5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -9211,8 +10111,8 @@
       <c r="C6" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>471</v>
+      <c r="D6" s="39" t="s">
+        <v>468</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>14</v>
@@ -9221,13 +10121,13 @@
         <v>403</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>13</v>
@@ -9236,7 +10136,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>12</v>
@@ -9244,8 +10144,20 @@
       <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
@@ -9255,7 +10167,7 @@
       <c r="C7" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -9288,8 +10200,20 @@
       <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -9304,7 +10228,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -9317,7 +10241,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -9330,7 +10254,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -9343,7 +10267,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -9356,7 +10280,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -9369,7 +10293,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -9399,10 +10323,395 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" customWidth="1"/>
+    <col min="6" max="6" width="73.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9420,7 +10729,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9463,8 +10772,20 @@
       <c r="N1" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9472,25 +10793,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>472</v>
+        <v>440</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>602</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>13</v>
@@ -9499,7 +10820,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -9507,8 +10828,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -9516,10 +10849,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>472</v>
+        <v>441</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>602</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -9551,8 +10884,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9560,10 +10905,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>472</v>
+        <v>442</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>602</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -9572,13 +10917,13 @@
         <v>405</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>14</v>
@@ -9587,7 +10932,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -9595,8 +10940,20 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -9604,9 +10961,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D5" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -9639,8 +10996,20 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
@@ -9658,21 +11027,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c3\\3.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="I1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9691,7 +11060,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9734,8 +11103,20 @@
       <c r="N1" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9743,10 +11124,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>473</v>
+        <v>443</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>605</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -9755,13 +11136,13 @@
         <v>406</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -9770,7 +11151,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -9778,8 +11159,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -9787,10 +11180,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>473</v>
+        <v>444</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>605</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -9799,13 +11192,13 @@
         <v>407</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -9814,7 +11207,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
@@ -9822,8 +11215,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -9831,10 +11236,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>473</v>
+        <v>603</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>605</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -9843,13 +11248,13 @@
         <v>408</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>12</v>
@@ -9858,7 +11263,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -9866,8 +11271,20 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -9875,10 +11292,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>473</v>
+        <v>604</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>605</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
@@ -9887,13 +11304,13 @@
         <v>409</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>16</v>
@@ -9902,7 +11319,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>14</v>
@@ -9910,8 +11327,20 @@
       <c r="N5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -9919,9 +11348,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -9954,8 +11383,20 @@
       <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -9972,7 +11413,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
@@ -9988,7 +11429,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -10007,23 +11448,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\4.PNG"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c4\\4.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10039,7 +11480,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10073,17 +11514,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -10091,10 +11544,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>474</v>
+        <v>445</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>469</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
@@ -10103,13 +11556,13 @@
         <v>410</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
@@ -10118,7 +11571,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>14</v>
@@ -10126,8 +11579,20 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -10135,10 +11600,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>474</v>
+        <v>446</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>606</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -10147,13 +11612,13 @@
         <v>411</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -10162,7 +11627,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -10170,8 +11635,20 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -10179,9 +11656,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -10214,28 +11691,40 @@
       <c r="N4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c5\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c5\\2.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10254,7 +11743,7 @@
     <col min="14" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10288,17 +11777,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -10306,10 +11807,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>475</v>
+        <v>447</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>607</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
@@ -10318,13 +11819,13 @@
         <v>410</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
@@ -10333,7 +11834,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>14</v>
@@ -10341,8 +11842,20 @@
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -10350,10 +11863,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>475</v>
+        <v>448</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>607</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -10362,13 +11875,13 @@
         <v>412</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -10377,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>14</v>
@@ -10385,8 +11898,20 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -10394,9 +11919,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -10429,8 +11954,20 @@
       <c r="N4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
@@ -10445,7 +11982,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="4"/>
@@ -10458,7 +11995,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="4"/>
@@ -10471,7 +12008,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
@@ -10486,21 +12023,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c6\\2.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10515,7 +12052,7 @@
     <col min="9" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10549,17 +12086,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="O1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -10567,10 +12116,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>476</v>
+        <v>449</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>608</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -10579,13 +12128,13 @@
         <v>413</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>13</v>
@@ -10594,7 +12143,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -10602,8 +12151,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -10611,10 +12172,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>477</v>
+        <v>450</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>609</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -10646,8 +12207,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -10655,10 +12228,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>476</v>
+        <v>451</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>608</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -10667,13 +12240,13 @@
         <v>415</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>14</v>
@@ -10682,7 +12255,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -10690,8 +12263,17 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -10699,9 +12281,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -10734,8 +12316,20 @@
       <c r="N5" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -10750,7 +12344,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="17"/>
       <c r="C7" s="4"/>
@@ -10763,7 +12357,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
@@ -10776,7 +12370,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -10789,7 +12383,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -10802,7 +12396,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -10814,7 +12408,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="34"/>
       <c r="C12" s="4"/>
@@ -10827,7 +12421,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -10840,7 +12434,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -10853,7 +12447,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
@@ -10866,7 +12460,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
@@ -10925,22 +12519,22 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c7\\3.PNG"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10957,7 +12551,7 @@
     <col min="14" max="16384" width="15" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10991,17 +12585,29 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O1" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -11009,25 +12615,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>478</v>
+        <v>452</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>610</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
@@ -11036,7 +12642,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -11044,9 +12650,20 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -11054,10 +12671,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>478</v>
+        <v>453</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>610</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
@@ -11066,13 +12683,13 @@
         <v>416</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
@@ -11081,7 +12698,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>14</v>
@@ -11089,9 +12706,20 @@
       <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -11099,10 +12727,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>478</v>
+        <v>454</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>610</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
@@ -11111,13 +12739,13 @@
         <v>417</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>13</v>
@@ -11126,7 +12754,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>14</v>
@@ -11134,9 +12762,20 @@
       <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -11144,10 +12783,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>478</v>
+        <v>611</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>610</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
@@ -11156,13 +12795,13 @@
         <v>418</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>12</v>
@@ -11171,7 +12810,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>14</v>
@@ -11179,9 +12818,20 @@
       <c r="N5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -11189,9 +12839,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -11224,9 +12874,20 @@
       <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -11241,7 +12902,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -11254,7 +12915,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -11267,7 +12928,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -11280,7 +12941,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -11293,7 +12954,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -11306,7 +12967,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -11319,7 +12980,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -11332,7 +12993,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
@@ -11345,7 +13006,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
@@ -11452,395 +13113,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\4.PNG"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c8\\4.PNG"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="13.6640625" style="20"/>
-    <col min="3" max="3" width="48.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="20"/>
-    <col min="6" max="6" width="63.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="13.6640625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c9\\3.PNG"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\27-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2B5DBE-CB16-466C-BC43-802EA44849B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="624">
   <si>
     <t>nActi</t>
   </si>
@@ -1953,11 +1954,20 @@
   <si>
     <t>D. 1 là VCPA1, 2 là VCPA2, 3 là EPA1, 4 là EPA2, 5 là VPA1, 6 là VPA2</t>
   </si>
+  <si>
+    <t>@01D2#</t>
+  </si>
+  <si>
+    <t>@01D1#</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2514,11 +2524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2676,7 +2686,7 @@
         <v>471</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>472</v>
+        <v>623</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>12</v>
@@ -2700,10 +2710,10 @@
         <v>14</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>14</v>
+        <v>621</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -2812,10 +2822,10 @@
         <v>14</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>584</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2865,7 +2875,7 @@
         <v>581</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>14</v>
@@ -3011,11 +3021,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\1.PNG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\2.PNG" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\3.PNG" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c1\\4.PNG" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -3023,7 +3033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3455,17 +3465,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4028,10 +4038,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -4039,7 +4049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4341,21 +4351,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4584,10 +4594,10 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>621</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>584</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4637,7 +4647,7 @@
         <v>582</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>14</v>
@@ -4653,17 +4663,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -4970,17 +4980,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5850,7 +5860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7101,13 +7111,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -7115,7 +7125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8253,30 +8263,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C18" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C20" r:id="rId15"/>
-    <hyperlink ref="C21" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
-    <hyperlink ref="C30" r:id="rId20"/>
-    <hyperlink ref="C31" r:id="rId21"/>
-    <hyperlink ref="C32" r:id="rId22"/>
-    <hyperlink ref="C33" r:id="rId23"/>
-    <hyperlink ref="C2" r:id="rId24"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-1000-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-1000-000012000000}"/>
+    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-1000-000013000000}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-1000-000014000000}"/>
+    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-1000-000015000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-1000-000016000000}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-1000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -8284,7 +8294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8984,30 +8994,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-1100-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-1100-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-1100-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-1100-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-1100-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-1100-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-1100-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-1100-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-1100-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-1100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -9773,24 +9783,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-1200-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-1200-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-1200-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-1200-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-1200-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-1200-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-1200-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-1200-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -9798,7 +9808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -10309,12 +10319,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\1.PNG"/>
-    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG"/>
-    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\3.PNG"/>
-    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG"/>
-    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG"/>
-    <hyperlink ref="C7" r:id="rId6" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG"/>
+    <hyperlink ref="C2" r:id="rId1" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\1.PNG" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\3.PNG" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\2.PNG" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" display="\\Resources1\\Hinh anh cac chuong\\hinh anh c2\\5.PNG" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -10322,7 +10332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -10696,18 +10706,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -11027,17 +11037,17 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
@@ -11448,11 +11458,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -11460,7 +11470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11711,16 +11721,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -12023,9 +12033,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -12033,7 +12043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -12518,10 +12528,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -12529,7 +12539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -13113,11 +13123,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2B5DBE-CB16-466C-BC43-802EA44849B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE1D3D-135E-4277-AC2D-5739DEE2E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="636">
   <si>
     <t>nActi</t>
   </si>
@@ -1830,9 +1830,6 @@
     <t>check</t>
   </si>
   <si>
-    <t>quý ăn cức</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -1962,6 +1959,45 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>chọn lại tín hiệu</t>
+  </si>
+  <si>
+    <t>Giá trị 2</t>
+  </si>
+  <si>
+    <t>Giá trị 3</t>
+  </si>
+  <si>
+    <t>Giá trị 4</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Đồ thị</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>điền ABCD</t>
+  </si>
+  <si>
+    <t>Đồ Thị</t>
+  </si>
+  <si>
+    <t>Loại đồ thị</t>
+  </si>
+  <si>
+    <t>R_TH</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>tTH</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2098,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2078,6 +2114,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,7 +2178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2206,6 +2254,12 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2525,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2542,13 +2596,13 @@
     <col min="8" max="8" width="12.109375" style="2"/>
     <col min="9" max="9" width="48" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" style="2"/>
-    <col min="11" max="11" width="12.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="12.109375" style="2"/>
+    <col min="11" max="11" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="12.109375" style="2"/>
+    <col min="18" max="18" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="12.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2577,34 +2631,49 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="L1" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="N1" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="O1" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="P1" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="41" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="R1" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>630</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -2632,15 +2701,15 @@
       <c r="I2" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>543</v>
       </c>
+      <c r="K2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2659,8 +2728,23 @@
       <c r="R2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="S2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -2686,16 +2770,16 @@
         <v>471</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="J3" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>473</v>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
@@ -2707,16 +2791,31 @@
         <v>14</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>621</v>
+        <v>13</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="S3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -2744,14 +2843,14 @@
       <c r="I4" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>477</v>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>14</v>
@@ -2763,16 +2862,31 @@
         <v>14</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -2786,31 +2900,31 @@
         <v>467</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>400</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>14</v>
+        <v>629</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>14</v>
+        <v>622</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>14</v>
@@ -2819,16 +2933,31 @@
         <v>14</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>14</v>
+        <v>581</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2856,26 +2985,26 @@
       <c r="I6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>14</v>
+        <v>628</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>16</v>
+        <v>581</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>581</v>
+        <v>13</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>622</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>14</v>
@@ -2883,8 +3012,23 @@
       <c r="R6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +3042,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
@@ -2910,7 +3054,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
@@ -2922,7 +3066,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
@@ -2934,7 +3078,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -2946,7 +3090,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
@@ -2958,7 +3102,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
@@ -2970,7 +3114,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4"/>
@@ -2982,7 +3126,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
@@ -2994,7 +3138,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
@@ -3118,7 +3262,7 @@
         <v>455</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -3174,7 +3318,7 @@
         <v>456</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -3216,7 +3360,7 @@
         <v>91</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
@@ -3230,7 +3374,7 @@
         <v>457</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -3319,10 +3463,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="P5" s="20" t="s">
         <v>582</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>583</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>14</v>
@@ -3560,7 +3704,7 @@
         <v>458</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -3593,7 +3737,7 @@
         <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>14</v>
@@ -3616,7 +3760,7 @@
         <v>459</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -3672,7 +3816,7 @@
         <v>460</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -3714,7 +3858,7 @@
         <v>91</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3761,10 +3905,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>14</v>
@@ -4131,7 +4275,7 @@
         <v>461</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -4187,7 +4331,7 @@
         <v>462</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -4229,7 +4373,7 @@
         <v>91</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -4243,7 +4387,7 @@
         <v>463</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -4285,7 +4429,7 @@
         <v>91</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4332,10 +4476,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>14</v>
@@ -4443,7 +4587,7 @@
         <v>464</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -4499,7 +4643,7 @@
         <v>465</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -4541,7 +4685,7 @@
         <v>91</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -4555,7 +4699,7 @@
         <v>466</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -4594,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>13</v>
@@ -4644,10 +4788,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>14</v>
@@ -4757,10 +4901,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -4784,7 +4928,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -4813,10 +4957,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -4858,7 +5002,7 @@
         <v>91</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
@@ -4869,10 +5013,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
@@ -4914,7 +5058,7 @@
         <v>91</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4925,7 +5069,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>14</v>
@@ -4961,10 +5105,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>14</v>
@@ -5915,11 +6059,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5955,10 +6099,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="40"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -5994,10 +6138,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -6033,10 +6177,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="40"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -10211,10 +10355,10 @@
         <v>16</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>14</v>
@@ -10413,7 +10557,7 @@
         <v>437</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -10422,14 +10566,14 @@
         <v>576</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>587</v>
-      </c>
       <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
@@ -10437,7 +10581,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>14</v>
@@ -10469,23 +10613,23 @@
         <v>438</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>593</v>
-      </c>
       <c r="J3" s="17" t="s">
         <v>14</v>
       </c>
@@ -10493,7 +10637,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
@@ -10525,22 +10669,22 @@
         <v>439</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>592</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>16</v>
@@ -10549,7 +10693,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>14</v>
@@ -10578,25 +10722,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>599</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>600</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>14</v>
@@ -10634,7 +10778,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>14</v>
@@ -10670,10 +10814,10 @@
         <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>14</v>
@@ -10806,7 +10950,7 @@
         <v>440</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -10862,7 +11006,7 @@
         <v>441</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -10904,7 +11048,7 @@
         <v>91</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="52.2" x14ac:dyDescent="0.3">
@@ -10918,7 +11062,7 @@
         <v>442</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -11007,10 +11151,10 @@
         <v>16</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>14</v>
@@ -11137,7 +11281,7 @@
         <v>443</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -11193,7 +11337,7 @@
         <v>444</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -11246,10 +11390,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -11302,10 +11446,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>604</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>605</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
@@ -11358,7 +11502,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>14</v>
@@ -11394,10 +11538,10 @@
         <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>14</v>
@@ -11613,7 +11757,7 @@
         <v>446</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -11702,10 +11846,10 @@
         <v>16</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>14</v>
@@ -11820,7 +11964,7 @@
         <v>447</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
@@ -11876,7 +12020,7 @@
         <v>448</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -11965,10 +12109,10 @@
         <v>16</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>14</v>
@@ -12129,7 +12273,7 @@
         <v>449</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -12185,7 +12329,7 @@
         <v>450</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
@@ -12227,7 +12371,7 @@
         <v>91</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -12241,7 +12385,7 @@
         <v>451</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -12327,10 +12471,10 @@
         <v>18</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>14</v>
@@ -12628,7 +12772,7 @@
         <v>452</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>14</v>
@@ -12684,7 +12828,7 @@
         <v>453</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
@@ -12740,7 +12884,7 @@
         <v>454</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
@@ -12793,10 +12937,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
@@ -12849,7 +12993,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>14</v>
@@ -12885,10 +13029,10 @@
         <v>16</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>14</v>

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\30-12\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Desktop\Resources3\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="708">
   <si>
     <t>nActi</t>
   </si>
@@ -1297,14 +1297,6 @@
     <t>Câu 2: Rãnh to nhất của cảm biến G dùng để xác định vị trí</t>
   </si>
   <si>
-    <t>Câu 1: Đo điện trở cảm biến ở chân THW theo nhiệt độ môi trường
-Yêu cầu: Ngắt kết nối cảm biến khỏi bảng mạch, tiến hành đo điện trở, 
-sau đó kết nối lại bảng mạch và chọn Tiếp theo.</t>
-  </si>
-  <si>
-    <t>Câu 2: Đo điện áp cảm biến ở chân THW theo nhiệt độ môi trường.</t>
-  </si>
-  <si>
     <t>Câu 3: ECU điều khiển quạt ở hệ thống làm mát quay ở ngưỡng nhiệt độ là:</t>
   </si>
   <si>
@@ -1318,9 +1310,6 @@
   </si>
   <si>
     <t>Câu 2: Tín hiệu điện áp cực VTA khi ở chế độ cầm chừng là ?</t>
-  </si>
-  <si>
-    <t>Câu 3: Khi bướm ga mở tín hiệu điện áp IDL gửi về là bao nhiêu ? (Chọn đáp án gần đúng)</t>
   </si>
   <si>
     <t>ENDEND</t>
@@ -1448,9 +1437,6 @@
 Kiểu Karman siêu âm</t>
   </si>
   <si>
-    <t>D. 3,5 kΩ</t>
-  </si>
-  <si>
     <t>A. Điện áp từ 0 - 2,4V</t>
   </si>
   <si>
@@ -1532,9 +1518,6 @@
     <t>D. Piston số 1 ở điểm chết dưới.</t>
   </si>
   <si>
-    <t>C. 450 Ω</t>
-  </si>
-  <si>
     <t>A. 60ºC</t>
   </si>
   <si>
@@ -1728,13 +1711,6 @@
   </si>
   <si>
     <t>C. 10 V</t>
-  </si>
-  <si>
-    <t>Bài 3: Cảm Biến Lưu Lượng Không Khí Nạp
-Kiểu van trượt</t>
-  </si>
-  <si>
-    <t>Bài 4: Cảm Biến Áp Suất Không Khí Nạp</t>
   </si>
   <si>
     <t>\\Resources3\\Hinh anh cac chuong\\hinh anh c5\\3.PNG</t>
@@ -1918,10 +1894,341 @@
     <t>Câu 4: Kiểm tra tín hiệu VG khi kết nối cảm biến. (đơn vị là V, cho sai số là +- 0,3V)</t>
   </si>
   <si>
+    <t>Câu 3: Đo điện áp tín hiệu cảm biến ở chân THA theo nhiệt độ môi trường. (đơn vị là V)</t>
+  </si>
+  <si>
+    <t>Câu 5: Điện áp tín hiệu cảm biến áp suất môi trường PA. (đơn vị là V)</t>
+  </si>
+  <si>
+    <t>Line 1</t>
+  </si>
+  <si>
+    <t>Line 2</t>
+  </si>
+  <si>
+    <t>D. G: 186 Ω; Ne: 202 Ω</t>
+  </si>
+  <si>
+    <t>D. ∆ = 5 - 7 mm</t>
+  </si>
+  <si>
+    <t>Câu 2: Điện áp tín hiệu chân PIM theo áp suất môi trường. (đơn vị là V)</t>
+  </si>
+  <si>
+    <t>B. 0.47</t>
+  </si>
+  <si>
+    <t>A. 0.57</t>
+  </si>
+  <si>
+    <t>B. 3.12</t>
+  </si>
+  <si>
+    <t>C. 1.14</t>
+  </si>
+  <si>
+    <t>C. 0.83</t>
+  </si>
+  <si>
+    <t>D. 2.02</t>
+  </si>
+  <si>
+    <t>C. 1.04</t>
+  </si>
+  <si>
+    <t>D. 2.76</t>
+  </si>
+  <si>
+    <t>B. 3.17</t>
+  </si>
+  <si>
+    <t>A. 3.49</t>
+  </si>
+  <si>
+    <t>D. 0.44 V</t>
+  </si>
+  <si>
+    <t>C. 2.29 V</t>
+  </si>
+  <si>
+    <t>B. 3.44 V</t>
+  </si>
+  <si>
+    <t>A. 4.29 V</t>
+  </si>
+  <si>
+    <t>C. ∆ = 0.5 - 0.7 mm</t>
+  </si>
+  <si>
+    <t>A. ∆ = 0.2 - 0.4 mm</t>
+  </si>
+  <si>
+    <t>C. 2.5 V</t>
+  </si>
+  <si>
+    <t>D. 2.5V - 2.7V</t>
+  </si>
+  <si>
+    <t>B. 4.5V - 5.3V</t>
+  </si>
+  <si>
+    <t>A. 0.45V - 0.65V</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>KSSA</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu VG</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu KS</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu VS</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Giá trị VG</t>
+  </si>
+  <si>
+    <t>Giá trị VS</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu PIM</t>
+  </si>
+  <si>
+    <t>Giá trị PIM</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu G và tín hiệu Ne (Cảm biến điện từ)</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>GDT</t>
+  </si>
+  <si>
+    <t>NEDT</t>
+  </si>
+  <si>
+    <t>Giá trị G</t>
+  </si>
+  <si>
+    <t>Giá trị Ne</t>
+  </si>
+  <si>
+    <t>Đồ thị giá trị G và giá trị Ne (Cảm biến Hall)</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>GHQ</t>
+  </si>
+  <si>
+    <t>NEHQ</t>
+  </si>
+  <si>
+    <t>Đồ thị giá trị G và giá trị Ne (Cảm biến quang)</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu PSW và tín hiệu IDL</t>
+  </si>
+  <si>
+    <t>PSW</t>
+  </si>
+  <si>
+    <t>IDLTD</t>
+  </si>
+  <si>
+    <t>Giá trị PSW</t>
+  </si>
+  <si>
+    <t>Giá trị IDL</t>
+  </si>
+  <si>
+    <t>VTAIDL</t>
+  </si>
+  <si>
+    <t>IDLTT</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu VTA (Có IDL)</t>
+  </si>
+  <si>
+    <t>Giá trị VTA</t>
+  </si>
+  <si>
+    <t>C. 1.28 V</t>
+  </si>
+  <si>
+    <t>B. 4.12 V</t>
+  </si>
+  <si>
+    <t>D. 2.56 V</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu VTA (Không có IDL)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>VTA</t>
+  </si>
+  <si>
+    <t>B. 5.91 V</t>
+  </si>
+  <si>
+    <t>B. 3.79 V</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu VTA (Loại Hall)</t>
+  </si>
+  <si>
+    <t>VTA2</t>
+  </si>
+  <si>
+    <t>Giá trị VTA2</t>
+  </si>
+  <si>
+    <t>VPA</t>
+  </si>
+  <si>
+    <t>VPA2</t>
+  </si>
+  <si>
+    <t>Giá trị VPA</t>
+  </si>
+  <si>
+    <t>Đồ thị tín hiệu VPA và tín hiệu VPA2</t>
+  </si>
+  <si>
+    <t>Giá trị VPA2</t>
+  </si>
+  <si>
+    <t>B. 5.34</t>
+  </si>
+  <si>
+    <t>D. 6.14</t>
+  </si>
+  <si>
+    <t>A. 5.12 V</t>
+  </si>
+  <si>
+    <t>B. 3.51 V</t>
+  </si>
+  <si>
+    <t>A. 4.61 V</t>
+  </si>
+  <si>
+    <t>A. 3.79 V</t>
+  </si>
+  <si>
+    <t>B. 1.28 V</t>
+  </si>
+  <si>
+    <t>C. 2.28 V</t>
+  </si>
+  <si>
+    <t>D. 5.11 V</t>
+  </si>
+  <si>
+    <t>D. 1.28 V</t>
+  </si>
+  <si>
+    <t>B. 2.56 V</t>
+  </si>
+  <si>
+    <t>A. 1.28 V</t>
+  </si>
+  <si>
+    <t>B. 4.56 V</t>
+  </si>
+  <si>
+    <t>C. 5.91 V</t>
+  </si>
+  <si>
+    <t>A. 2.56 V</t>
+  </si>
+  <si>
+    <t>D. 5.17 V</t>
+  </si>
+  <si>
+    <t>Câu 2: Đo điện áp tín hiệu VPA1 khi bàn đạp ga mở hết. (Chọn đáp án gần đúng nhất)</t>
+  </si>
+  <si>
+    <t>Câu 3: Đo điện áp tín hiệu VPA2 khi bàn đạp ga mở hết. (Chọn đáp án gần đúng nhất)</t>
+  </si>
+  <si>
+    <t>Câu 2: Đo điện áp tín hiệu VTA1 khi cánh bướm ga mở hết. (Chọn đáp án gần đúng nhất)</t>
+  </si>
+  <si>
+    <t>Câu 3: Đo điện áp tín hiệu VTA2 khi cánh bướm ga mở hết. (Chọn đáp án gần đúng nhất)</t>
+  </si>
+  <si>
+    <t>Câu 3: Đo điện áp tín hiệu VTA khi cánh bướm ga mở hết. (Chọn đáp án gần đúng nhất)</t>
+  </si>
+  <si>
+    <t>Câu 3: Khi bướm ga mở tín hiệu điện áp IDL gửi về là bao nhiêu ? (Chọn đáp án gần đúng nhất)</t>
+  </si>
+  <si>
+    <t>Câu 2: Đo điện áp tín hiệu VTA khi cánh bướm ga mở hết. (Chọn đáp án gần đúng nhất)</t>
+  </si>
+  <si>
+    <t>B. 4.93 V</t>
+  </si>
+  <si>
+    <t>D. 2.65 V</t>
+  </si>
+  <si>
+    <t>A. 1.52</t>
+  </si>
+  <si>
+    <t>Câu 2: Đo điện áp cảm biến ở chân TH theo nhiệt độ môi trường. (đơn vị là V)</t>
+  </si>
+  <si>
+    <t>D. 2.42</t>
+  </si>
+  <si>
+    <t>Câu 1: Đo điện trở cảm biến ở chân TH theo nhiệt độ môi trường. (đơn vị là kΩ)</t>
+  </si>
+  <si>
+    <t>C. 0.45</t>
+  </si>
+  <si>
+    <t>A. 5.13</t>
+  </si>
+  <si>
+    <t>B. 2.08</t>
+  </si>
+  <si>
+    <t>D. 1.56</t>
+  </si>
+  <si>
+    <t>Câu 3: Điện áp tín hiệu chân VS khi cánh cảm biến mở hết (Chọn đáp án gần đúng)</t>
+  </si>
+  <si>
+    <t>Câu 2: Điện áp tín hiệu chân VS khi cánh cảm biến đóng(Chọn đáp án gần đúng)</t>
+  </si>
+  <si>
     <r>
-      <t>Câu 2: Đo điện trở cảm biến ở chân THA theo nhiệt độ môi trường
-Yêu cầu: Ngắt kết nối cảm biến khỏi bảng mạch, tiến hành đo điện trở, 
-sau đó kết nối lại bảng mạch và chọn Tiếp theo. (đơn vị là k</t>
+      <t>Câu 2: Đo điện trở cảm biến ở chân THA theo nhiệt độ môi trường (đơn vị là k</t>
     </r>
     <r>
       <rPr>
@@ -1943,340 +2250,41 @@
     </r>
   </si>
   <si>
-    <t>Câu 3: Đo điện áp tín hiệu cảm biến ở chân THA theo nhiệt độ môi trường. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>Câu 5: Điện áp tín hiệu cảm biến áp suất môi trường PA. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>Line 1</t>
-  </si>
-  <si>
-    <t>Line 2</t>
-  </si>
-  <si>
-    <t>D. G: 186 Ω; Ne: 202 Ω</t>
-  </si>
-  <si>
-    <t>D. ∆ = 5 - 7 mm</t>
-  </si>
-  <si>
-    <t>D. 7</t>
-  </si>
-  <si>
-    <t>A. 5</t>
-  </si>
-  <si>
-    <t>B. 2</t>
-  </si>
-  <si>
-    <t>Câu 2: Điện áp tín hiệu chân PIM theo áp suất môi trường. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>Câu 2: Đo điện áp tín hiệu VTA khi cánh bướm ga mở hết. (đơn vị V)</t>
-  </si>
-  <si>
-    <t>C. 0</t>
-  </si>
-  <si>
-    <t>D. 6.5</t>
-  </si>
-  <si>
-    <t>A. 5.2</t>
-  </si>
-  <si>
-    <t>B. 0.47</t>
-  </si>
-  <si>
-    <t>A. 0.57</t>
-  </si>
-  <si>
-    <t>B. 3.12</t>
-  </si>
-  <si>
-    <t>C. 1.14</t>
-  </si>
-  <si>
-    <t>C. 3.5</t>
-  </si>
-  <si>
-    <t>C. 0.83</t>
-  </si>
-  <si>
-    <t>D. 2.02</t>
-  </si>
-  <si>
-    <t>A. 5.1</t>
-  </si>
-  <si>
-    <t>C. 1.04</t>
-  </si>
-  <si>
-    <t>D. 2.76</t>
-  </si>
-  <si>
-    <t>B. 3.17</t>
-  </si>
-  <si>
-    <t>A. 3.49</t>
-  </si>
-  <si>
-    <t>D. 0.44 V</t>
-  </si>
-  <si>
-    <t>C. 2.29 V</t>
-  </si>
-  <si>
-    <t>B. 3.44 V</t>
-  </si>
-  <si>
-    <t>A. 4.29 V</t>
-  </si>
-  <si>
-    <t>C. ∆ = 0.5 - 0.7 mm</t>
-  </si>
-  <si>
-    <t>A. ∆ = 0.2 - 0.4 mm</t>
-  </si>
-  <si>
-    <t>C. 2.5 V</t>
-  </si>
-  <si>
-    <t>A. 5.2 kΩ</t>
-  </si>
-  <si>
-    <t>D. 2.5V - 2.7V</t>
-  </si>
-  <si>
-    <t>B. 4.5V - 5.3V</t>
-  </si>
-  <si>
-    <t>A. 0.45V - 0.65V</t>
-  </si>
-  <si>
-    <t>Câu 3: Đo điện áp tín hiệu VTA khi cánh bướm ga mở hết. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>Câu 2: Đo điện áp tín hiệu VTA1 khi cánh bướm ga mở hết. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>Câu 3: Đo điện áp tín hiệu VTA2 khi cánh bướm ga mở hết. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>THA</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>KSSA</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu VG</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu KS</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu VS</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>Giá trị VG</t>
-  </si>
-  <si>
-    <t>Giá trị VS</t>
-  </si>
-  <si>
-    <t>PIM</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu PIM</t>
-  </si>
-  <si>
-    <t>Giá trị PIM</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu G và tín hiệu Ne (Cảm biến điện từ)</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>GDT</t>
-  </si>
-  <si>
-    <t>NEDT</t>
-  </si>
-  <si>
-    <t>Giá trị G</t>
-  </si>
-  <si>
-    <t>Giá trị Ne</t>
-  </si>
-  <si>
-    <t>Đồ thị giá trị G và giá trị Ne (Cảm biến Hall)</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>GHQ</t>
-  </si>
-  <si>
-    <t>NEHQ</t>
-  </si>
-  <si>
-    <t>Đồ thị giá trị G và giá trị Ne (Cảm biến quang)</t>
-  </si>
-  <si>
-    <t>Đồ thị giá trị THW</t>
-  </si>
-  <si>
-    <t>THW</t>
-  </si>
-  <si>
-    <t>Giá trị THW</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu PSW và tín hiệu IDL</t>
-  </si>
-  <si>
-    <t>PSW</t>
-  </si>
-  <si>
-    <t>IDLTD</t>
-  </si>
-  <si>
-    <t>Giá trị PSW</t>
-  </si>
-  <si>
-    <t>Giá trị IDL</t>
-  </si>
-  <si>
-    <t>B. 7</t>
-  </si>
-  <si>
-    <t>VTAIDL</t>
-  </si>
-  <si>
-    <t>IDLTT</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu VTA (Có IDL)</t>
-  </si>
-  <si>
-    <t>Giá trị VTA</t>
-  </si>
-  <si>
-    <t>C. 1.28 V</t>
-  </si>
-  <si>
-    <t>B. 4.12 V</t>
-  </si>
-  <si>
-    <t>D. 2.56 V</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu VTA (Không có IDL)</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>VTA</t>
-  </si>
-  <si>
-    <t>B. 5.91 V</t>
-  </si>
-  <si>
-    <t>B. 3.79 V</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu VTA (Loại Hall)</t>
-  </si>
-  <si>
-    <t>VTA2</t>
-  </si>
-  <si>
-    <t>Giá trị VTA2</t>
-  </si>
-  <si>
-    <t>VPA</t>
-  </si>
-  <si>
-    <t>VPA2</t>
-  </si>
-  <si>
-    <t>Giá trị VPA</t>
-  </si>
-  <si>
-    <t>B. 3.51</t>
-  </si>
-  <si>
-    <t>Câu 2: Đo điện áp tín hiệu VPA1 khi bàn đạp ga mở hết. (Dơn vị là V)</t>
-  </si>
-  <si>
-    <t>B. 5.91</t>
-  </si>
-  <si>
-    <t>C. 1.28</t>
-  </si>
-  <si>
-    <t>D. 2.56</t>
-  </si>
-  <si>
-    <t>Đồ thị tín hiệu VPA và tín hiệu VPA2</t>
-  </si>
-  <si>
-    <t>Giá trị VPA2</t>
-  </si>
-  <si>
-    <t>A. 5.62</t>
-  </si>
-  <si>
-    <t>B. 2.56</t>
-  </si>
-  <si>
-    <t>Câu 2: Đo điện áp tín hiệu VPA1 khi bàn đạp ga mở hết. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>Câu 3: Đo điện áp tín hiệu VPA2 khi bàn đạp ga mở hết. (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>A. 3.79</t>
-  </si>
-  <si>
-    <t>B. 1.28</t>
-  </si>
-  <si>
-    <t>D. 1.28</t>
-  </si>
-  <si>
-    <t>C. 2.28</t>
-  </si>
-  <si>
-    <t>Câu 2: Điện áp tín hiệu chân VS khi cánh cảm biến đóng(Chọn đáp án gần đúng) (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>Câu 3: Điện áp tín hiệu chân VS khi cánh cảm biến mở hết (Chọn đáp án gần đúng) (đơn vị là V)</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>B. 5.34</t>
-  </si>
-  <si>
-    <t>A. 5.21</t>
-  </si>
-  <si>
-    <t>D. 6.14</t>
+    <t>A. 5.11</t>
+  </si>
+  <si>
+    <t>A. 5.25</t>
+  </si>
+  <si>
+    <t>A. 0.55</t>
+  </si>
+  <si>
+    <t>D. 3.57</t>
+  </si>
+  <si>
+    <t>Bài 3: Cảm Biến Áp Suất Không Khí Nạp
+Kiểu Van Trượt</t>
+  </si>
+  <si>
+    <t>Bài 4: Cảm Biến Áp Suất Đường Ống Nạp</t>
+  </si>
+  <si>
+    <t>D. 3.55</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>mã gửi</t>
+  </si>
+  <si>
+    <t>Đồ thị giá trị TH</t>
+  </si>
+  <si>
+    <t>Giá trị TH</t>
+  </si>
+  <si>
+    <t>C. 4.71 V</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2556,9 +2564,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2618,9 +2623,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2948,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="N1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3003,47 +3005,47 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -3054,28 +3056,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>453</v>
+        <v>412</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>450</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>14</v>
@@ -3131,28 +3133,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>579</v>
+        <v>413</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>572</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>605</v>
+        <v>697</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>610</v>
+        <v>562</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>702</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>12</v>
@@ -3170,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>13</v>
@@ -3182,16 +3184,16 @@
         <v>13</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>14</v>
@@ -3208,28 +3210,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>453</v>
+        <v>414</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>450</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>16</v>
@@ -3247,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>13</v>
@@ -3259,16 +3261,16 @@
         <v>13</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>14</v>
@@ -3285,28 +3287,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>453</v>
+        <v>415</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>450</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>12</v>
@@ -3324,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>13</v>
@@ -3336,16 +3338,16 @@
         <v>13</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>14</v>
@@ -3362,10 +3364,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>453</v>
+        <v>415</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>450</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>13</v>
@@ -3392,10 +3394,10 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>13</v>
@@ -3413,22 +3415,22 @@
         <v>14</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -3443,7 +3445,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="46"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
@@ -3583,9 +3585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3626,53 +3628,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="52.2" x14ac:dyDescent="0.3">
@@ -3683,28 +3685,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>560</v>
+        <v>438</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>553</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>16</v>
@@ -3760,31 +3762,31 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>560</v>
+        <v>439</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>553</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>569</v>
+        <v>671</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -3799,28 +3801,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>665</v>
+        <v>14</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>14</v>
@@ -3837,28 +3839,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>560</v>
+        <v>440</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>553</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>413</v>
+        <v>681</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
@@ -3914,9 +3916,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3944,7 +3946,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>157</v>
@@ -3965,22 +3967,22 @@
         <v>14</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -4120,9 +4122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4163,53 +4165,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="52.2" x14ac:dyDescent="0.3">
@@ -4220,28 +4222,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>561</v>
+        <v>441</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>554</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>13</v>
@@ -4297,28 +4299,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>561</v>
+        <v>442</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>554</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>14</v>
@@ -4374,31 +4376,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>561</v>
+        <v>443</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>554</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>569</v>
+        <v>674</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -4413,28 +4415,28 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>673</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>674</v>
+        <v>14</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>14</v>
@@ -4451,9 +4453,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -4481,10 +4483,10 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
@@ -4502,22 +4504,22 @@
         <v>14</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -4779,8 +4781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4819,53 +4821,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -4876,28 +4878,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>562</v>
+        <v>444</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>555</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>13</v>
@@ -4953,31 +4955,31 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>562</v>
+        <v>445</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>555</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>569</v>
+        <v>671</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -4992,28 +4994,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>674</v>
+        <v>14</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>14</v>
@@ -5030,28 +5032,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>562</v>
+        <v>446</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>555</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>569</v>
+        <v>662</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -5069,28 +5071,28 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>678</v>
+        <v>14</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>14</v>
@@ -5107,9 +5109,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -5137,7 +5139,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>185</v>
@@ -5158,26 +5160,26 @@
         <v>14</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="X5" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="Y5" s="56" t="s">
-        <v>679</v>
+        <v>562</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y5" s="55" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5196,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView topLeftCell="G1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5236,53 +5238,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -5293,28 +5295,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>563</v>
+        <v>447</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>556</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>16</v>
@@ -5370,28 +5372,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>563</v>
+        <v>448</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>556</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>687</v>
+        <v>646</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>14</v>
@@ -5409,28 +5411,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>390</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>680</v>
+        <v>14</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>14</v>
@@ -5447,28 +5449,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>563</v>
+        <v>449</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>556</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>569</v>
+        <v>662</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>687</v>
+        <v>646</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -5486,28 +5488,28 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>681</v>
+        <v>14</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>14</v>
@@ -5524,9 +5526,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -5554,7 +5556,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>390</v>
@@ -5575,26 +5577,26 @@
         <v>14</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="X5" s="56" t="s">
-        <v>682</v>
-      </c>
-      <c r="Y5" s="56" t="s">
-        <v>689</v>
+        <v>562</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y5" s="55" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5613,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5658,53 +5660,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="52.2" x14ac:dyDescent="0.3">
@@ -5715,28 +5717,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>564</v>
+        <v>560</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>557</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
@@ -5792,28 +5794,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>564</v>
+        <v>559</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>557</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>569</v>
+        <v>707</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>12</v>
@@ -5831,28 +5833,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>390</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="V3" s="56" t="s">
-        <v>680</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>569</v>
+        <v>14</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>14</v>
@@ -5869,28 +5871,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>564</v>
+        <v>558</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>557</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>16</v>
@@ -5908,28 +5910,28 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="W4" s="56" t="s">
-        <v>681</v>
+        <v>14</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>14</v>
@@ -5938,94 +5940,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="56" t="s">
-        <v>680</v>
-      </c>
-      <c r="U5" s="56" t="s">
-        <v>681</v>
-      </c>
-      <c r="V5" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="W5" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="X5" s="56" t="s">
-        <v>682</v>
-      </c>
-      <c r="Y5" s="56" t="s">
-        <v>689</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>414</v>
-      </c>
+      <c r="A6" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6957,11 +6884,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -6997,10 +6924,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="64"/>
+      <c r="P2" s="62"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -7036,10 +6963,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="64"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -7075,10 +7002,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="64"/>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -10853,8 +10780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="L1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10901,53 +10828,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="53" t="s">
         <v>578</v>
       </c>
-      <c r="M1" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="54" t="s">
-        <v>585</v>
-      </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="U1" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>572</v>
-      </c>
-      <c r="W1" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>594</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>595</v>
+      <c r="U1" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="V1" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="W1" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="X1" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y1" s="54" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="52.2" x14ac:dyDescent="0.3">
@@ -10958,28 +10885,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>454</v>
+        <v>416</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>451</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>12</v>
@@ -11035,28 +10962,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>582</v>
+        <v>417</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>575</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>591</v>
+        <v>695</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>12</v>
@@ -11074,28 +11001,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>569</v>
+        <v>611</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>14</v>
@@ -11112,28 +11039,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>454</v>
+        <v>418</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>451</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>607</v>
-      </c>
       <c r="H4" s="17" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>16</v>
@@ -11151,7 +11078,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>13</v>
@@ -11163,16 +11090,16 @@
         <v>13</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>14</v>
@@ -11189,10 +11116,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>454</v>
+        <v>417</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>451</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
@@ -11201,16 +11128,16 @@
         <v>397</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>13</v>
@@ -11266,28 +11193,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>454</v>
+        <v>419</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>451</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>613</v>
+        <v>696</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>13</v>
@@ -11305,7 +11232,7 @@
         <v>14</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>13</v>
@@ -11317,16 +11244,16 @@
         <v>13</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>14</v>
@@ -11343,9 +11270,9 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -11373,10 +11300,10 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>13</v>
@@ -11394,22 +11321,22 @@
         <v>14</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -11424,7 +11351,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="46"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
@@ -11517,8 +11444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="G1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11562,47 +11489,47 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="54" t="s">
-        <v>585</v>
-      </c>
-      <c r="T1" s="55" t="s">
+      <c r="L1" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="T1" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="U1" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>572</v>
-      </c>
-      <c r="W1" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>594</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>595</v>
+      <c r="U1" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="V1" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="W1" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="X1" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y1" s="54" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -11613,28 +11540,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>549</v>
+        <v>420</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>700</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
@@ -11690,28 +11617,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>549</v>
+        <v>421</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>700</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>14</v>
@@ -11729,28 +11656,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>638</v>
+        <v>14</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>14</v>
@@ -11767,28 +11694,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>549</v>
+        <v>422</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>700</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>16</v>
@@ -11806,28 +11733,28 @@
         <v>14</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>638</v>
+        <v>14</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>14</v>
@@ -11837,79 +11764,79 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>549</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>545</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>497</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="59" t="s">
+      <c r="J5" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11921,9 +11848,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D6" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -11951,7 +11878,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>91</v>
@@ -11965,51 +11892,51 @@
       <c r="Q6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>638</v>
-      </c>
-      <c r="U6" s="56" t="s">
-        <v>639</v>
-      </c>
-      <c r="V6" s="56" t="s">
-        <v>576</v>
-      </c>
-      <c r="W6" s="56" t="s">
+      <c r="R6" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="U6" s="55" t="s">
+        <v>618</v>
+      </c>
+      <c r="V6" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="X6" s="56" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y6" s="59" t="s">
-        <v>700</v>
+      <c r="W6" s="55" t="s">
+        <v>562</v>
+      </c>
+      <c r="X6" s="55" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y6" s="57" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="29"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12027,7 +11954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -12080,47 +12007,47 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="54" t="s">
-        <v>585</v>
-      </c>
-      <c r="T1" s="55" t="s">
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="T1" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="U1" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>572</v>
-      </c>
-      <c r="W1" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>594</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>595</v>
+      <c r="U1" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="V1" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="W1" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="X1" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y1" s="54" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="52.2" x14ac:dyDescent="0.3">
@@ -12131,28 +12058,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>550</v>
+        <v>423</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>701</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>504</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>13</v>
@@ -12208,34 +12135,34 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>550</v>
+        <v>424</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>701</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>598</v>
+        <v>692</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
@@ -12247,28 +12174,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>642</v>
+        <v>562</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>14</v>
@@ -12285,10 +12212,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>550</v>
+        <v>425</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>701</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
@@ -12297,16 +12224,16 @@
         <v>398</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -12362,9 +12289,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -12392,13 +12319,13 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>538</v>
+        <v>19</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>14</v>
@@ -12413,22 +12340,22 @@
         <v>14</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -12461,8 +12388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="L1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12515,47 +12442,47 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>578</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -12566,10 +12493,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>553</v>
+        <v>426</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -12578,16 +12505,16 @@
         <v>399</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
@@ -12643,10 +12570,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>553</v>
+        <v>427</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -12655,16 +12582,16 @@
         <v>400</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>14</v>
@@ -12720,10 +12647,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>553</v>
+        <v>544</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -12732,16 +12659,16 @@
         <v>401</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -12797,10 +12724,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>553</v>
+        <v>545</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>546</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>14</v>
@@ -12809,16 +12736,16 @@
         <v>402</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -12874,9 +12801,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D6" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -12904,10 +12831,10 @@
         <v>16</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>12</v>
@@ -12925,117 +12852,117 @@
         <v>14</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="29"/>
@@ -13058,8 +12985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView topLeftCell="M1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13103,53 +13030,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="M1" s="49" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="U1" s="51" t="s">
-        <v>571</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>572</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>594</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>595</v>
+      <c r="U1" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -13160,10 +13087,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>554</v>
+        <v>428</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>547</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
@@ -13172,16 +13099,16 @@
         <v>403</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>14</v>
@@ -13237,10 +13164,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>554</v>
+        <v>429</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>547</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -13249,16 +13176,16 @@
         <v>404</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>14</v>
@@ -13314,9 +13241,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -13344,10 +13271,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>12</v>
@@ -13365,22 +13292,22 @@
         <v>14</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -13402,7 +13329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
@@ -13449,53 +13376,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="69.599999999999994" x14ac:dyDescent="0.3">
@@ -13506,10 +13433,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>555</v>
+        <v>430</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>548</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>14</v>
@@ -13518,16 +13445,16 @@
         <v>403</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>14</v>
@@ -13583,10 +13510,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>555</v>
+        <v>431</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>548</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>14</v>
@@ -13595,19 +13522,19 @@
         <v>405</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>14</v>
@@ -13660,9 +13587,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D4" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -13690,10 +13617,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>12</v>
@@ -13711,22 +13638,22 @@
         <v>14</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -13735,49 +13662,21 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4"/>
-      <c r="D8"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13794,8 +13693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="N1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13838,56 +13737,56 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="62.4" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -13895,28 +13794,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>556</v>
+        <v>432</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>549</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>406</v>
+        <v>688</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>483</v>
+        <v>689</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>455</v>
+        <v>699</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>13</v>
@@ -13934,28 +13833,28 @@
         <v>14</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>14</v>
@@ -13972,34 +13871,34 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>557</v>
+        <v>433</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>550</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>407</v>
+        <v>686</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>14</v>
+        <v>685</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>14</v>
+        <v>593</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>687</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
@@ -14011,28 +13910,28 @@
         <v>14</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>14</v>
+        <v>570</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>14</v>
@@ -14049,31 +13948,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>556</v>
+        <v>434</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>549</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -14126,9 +14025,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D5" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -14156,10 +14055,10 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -14177,22 +14076,22 @@
         <v>14</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>569</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
@@ -14212,7 +14111,7 @@
     <row r="7" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -14224,7 +14123,7 @@
     <row r="8" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="40"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -14236,11 +14135,11 @@
     <row r="9" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="40"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -14248,11 +14147,11 @@
     <row r="10" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -14260,7 +14159,7 @@
     <row r="11" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
       <c r="G11" s="17"/>
@@ -14270,8 +14169,8 @@
     </row>
     <row r="12" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -14283,7 +14182,7 @@
     <row r="13" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="40"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
@@ -14295,7 +14194,7 @@
     <row r="14" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
@@ -14340,7 +14239,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="17"/>
       <c r="C18" s="4"/>
@@ -14356,7 +14255,7 @@
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="31"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -14384,9 +14283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14431,53 +14330,53 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>585</v>
+      <c r="L1" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>334</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -14488,28 +14387,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>558</v>
+        <v>435</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>551</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
@@ -14565,28 +14464,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>558</v>
+        <v>436</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>551</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>488</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>493</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>14</v>
@@ -14642,28 +14541,28 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>558</v>
+        <v>437</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>551</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>13</v>
@@ -14719,28 +14618,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>558</v>
+        <v>552</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>551</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>12</v>
@@ -14796,9 +14695,9 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -14826,7 +14725,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>388</v>
@@ -14847,182 +14746,30 @@
         <v>14</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>

--- a/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/Resources3/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Desktop\Resources3\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\9-1\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\Resources3\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -2950,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -3585,9 +3585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3768,7 +3768,7 @@
         <v>553</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>682</v>
@@ -4122,9 +4122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4382,7 +4382,7 @@
         <v>554</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>680</v>
@@ -4781,8 +4781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4961,7 +4961,7 @@
         <v>555</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>678</v>
@@ -5038,7 +5038,7 @@
         <v>555</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>679</v>
@@ -5198,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5378,7 +5378,7 @@
         <v>556</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>676</v>
@@ -5455,7 +5455,7 @@
         <v>556</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>677</v>
@@ -5615,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5800,7 +5800,7 @@
         <v>557</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>676</v>
@@ -5877,7 +5877,7 @@
         <v>557</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>677</v>
@@ -10780,7 +10780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -11444,7 +11444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
@@ -11954,8 +11954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12141,7 +12141,7 @@
         <v>701</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>590</v>
@@ -12388,7 +12388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+    <sheetView zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -12985,7 +12985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -13329,8 +13329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13693,8 +13693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13877,7 +13877,7 @@
         <v>550</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>686</v>
@@ -14283,7 +14283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+    <sheetView zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
     </sheetView>
